--- a/Sprint1 y 2/16-09-2021/03_Product_Backlog.xlsx
+++ b/Sprint1 y 2/16-09-2021/03_Product_Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Documents\GitHub\Huella_Carbono\Sprint0\10-09-2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Documents\GitHub\Huella_Carbono\Sprint1 y 2\16-09-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14921E44-F3D4-41F6-BB8E-E0718ABAE1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA6BE60-7A98-49B4-B845-C64CFEDE36D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D13067E4-98AA-4D02-BD79-AE235663521A}"/>
   </bookViews>
@@ -34,14 +34,14 @@
     <definedName name="PBCurrentBottom">OFFSET('[1]PB Burndown'!$N$27,1,0,'[1]PB Burndown'!$G$9,1)</definedName>
     <definedName name="PBTrend">OFFSET('[1]PB Burndown'!$M$27,1,0,'[1]PB Burndown'!$G$9,1)</definedName>
     <definedName name="PlannedSpeed">OFFSET('[1]PB Burndown'!$C$27,1,0,'[1]PB Burndown'!$G$3,1)</definedName>
-    <definedName name="ProductBacklog">'Product Backlog'!$A$4:$H$139</definedName>
+    <definedName name="ProductBacklog">'Product Backlog'!$A$4:$H$138</definedName>
     <definedName name="RealizedSpeed">OFFSET('[1]PB Burndown'!$D$27,1,0,'[1]PB Burndown'!$G$3,1)</definedName>
-    <definedName name="Sprint">'Product Backlog'!$E$5:$E$139</definedName>
+    <definedName name="Sprint">'Product Backlog'!$E$5:$E$138</definedName>
     <definedName name="SprintCount">'[1]PB Burndown'!$G$3</definedName>
     <definedName name="SprintsInTrend">'[1]PB Burndown'!$G$6</definedName>
     <definedName name="SprintTasks">#REF!</definedName>
-    <definedName name="Status">'Product Backlog'!$C$5:$C$139</definedName>
-    <definedName name="StoryName">'Product Backlog'!$B$5:$B$139</definedName>
+    <definedName name="Status">'Product Backlog'!$C$5:$C$138</definedName>
+    <definedName name="StoryName">'Product Backlog'!$B$5:$B$138</definedName>
     <definedName name="TaskRows">#REF!</definedName>
     <definedName name="TaskStatus">#REF!</definedName>
     <definedName name="TaskStoryID">#REF!</definedName>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="71">
   <si>
     <t>Increment Plan</t>
   </si>
@@ -360,6 +360,18 @@
   </si>
   <si>
     <t>En desarrollo sprint 1 y 2</t>
+  </si>
+  <si>
+    <t>Diseño de fuente</t>
+  </si>
+  <si>
+    <t>Creación de los controles de ingreso de la información de configuración para el personal administrativo.</t>
+  </si>
+  <si>
+    <t>Creación de la navegación entre pantallas.</t>
+  </si>
+  <si>
+    <t>Se agrega el label "Log in" y el botón "Ingresar"</t>
   </si>
 </sst>
 </file>
@@ -687,29 +699,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="104">
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="101">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -3491,292 +3481,292 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H4:I6 E5:F6 E32:F33 E9:F10 E7:E8 H9:I10 A4:D10">
-    <cfRule type="expression" dxfId="103" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="127" stopIfTrue="1">
       <formula>$G4="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="128" stopIfTrue="1">
       <formula>$G4="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G16:G22 G9:G10 G30:G31">
-    <cfRule type="expression" dxfId="101" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="129" stopIfTrue="1">
       <formula>$G4="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="130" stopIfTrue="1">
       <formula>$G4="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="131" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F5 F6 H16:I16 A30:F31 H30:H31 A16:F16 A17:A22 I17:I21 C17:F22">
-    <cfRule type="expression" dxfId="98" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="132" stopIfTrue="1">
       <formula>OR($G4="Planned",$G4="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="133" stopIfTrue="1">
       <formula>$G4="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="96" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="125" stopIfTrue="1">
       <formula>$G16="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="126" stopIfTrue="1">
       <formula>$G16="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="94" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="123" stopIfTrue="1">
       <formula>$G16="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="124" stopIfTrue="1">
       <formula>$G16="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D22">
-    <cfRule type="expression" dxfId="92" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="121" stopIfTrue="1">
       <formula>$G16="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="122" stopIfTrue="1">
       <formula>$G16="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:I8 F7:F8">
-    <cfRule type="expression" dxfId="90" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="114" stopIfTrue="1">
       <formula>$G7="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="115" stopIfTrue="1">
       <formula>$G7="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G8">
-    <cfRule type="expression" dxfId="88" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="116" stopIfTrue="1">
       <formula>$G7="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="117" stopIfTrue="1">
       <formula>$G7="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="118" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F8">
-    <cfRule type="expression" dxfId="85" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="119" stopIfTrue="1">
       <formula>OR($G7="Planned",$G7="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="120" stopIfTrue="1">
       <formula>$G7="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="83" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="109" stopIfTrue="1">
       <formula>$G23="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="110" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="111" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23 C23 E23:F23">
-    <cfRule type="expression" dxfId="80" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="112" stopIfTrue="1">
       <formula>OR($G23="Planned",$G23="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="113" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="78" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="98" stopIfTrue="1">
       <formula>$G24="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="99" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="100" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:F24">
-    <cfRule type="expression" dxfId="75" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="101" stopIfTrue="1">
       <formula>OR($G24="Planned",$G24="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="102" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="73" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="92" stopIfTrue="1">
       <formula>$G24="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="93" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="71" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="23" stopIfTrue="1">
       <formula>$G23="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="24" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="69" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="21" stopIfTrue="1">
       <formula>$G23="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="22" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B22">
-    <cfRule type="expression" dxfId="67" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="67" stopIfTrue="1">
       <formula>OR($G17="Planned",$G17="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="68" stopIfTrue="1">
       <formula>$G17="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B22">
-    <cfRule type="expression" dxfId="65" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="65" stopIfTrue="1">
       <formula>$G17="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="66" stopIfTrue="1">
       <formula>$G17="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B22">
-    <cfRule type="expression" dxfId="63" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="63" stopIfTrue="1">
       <formula>$G17="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="64" stopIfTrue="1">
       <formula>$G17="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H23">
-    <cfRule type="expression" dxfId="61" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="61" stopIfTrue="1">
       <formula>OR($G17="Planned",$G17="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="62" stopIfTrue="1">
       <formula>$G17="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H27">
-    <cfRule type="expression" dxfId="59" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="9" stopIfTrue="1">
       <formula>OR($G24="Planned",$G24="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="10" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B29">
-    <cfRule type="expression" dxfId="57" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="17" stopIfTrue="1">
       <formula>$G24="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="18" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="55" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="7" stopIfTrue="1">
       <formula>OR($G22="Planned",$G22="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="8" stopIfTrue="1">
       <formula>$G22="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G29">
-    <cfRule type="expression" dxfId="53" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="41" stopIfTrue="1">
       <formula>$G25="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="42" stopIfTrue="1">
       <formula>$G25="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="43" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29 C25:F29">
-    <cfRule type="expression" dxfId="50" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="44" stopIfTrue="1">
       <formula>OR($G25="Planned",$G25="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="45" stopIfTrue="1">
       <formula>$G25="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D29">
-    <cfRule type="expression" dxfId="48" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="39" stopIfTrue="1">
       <formula>$G25="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="40" stopIfTrue="1">
       <formula>$G25="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="46" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="25" stopIfTrue="1">
       <formula>OR($G23="Planned",$G23="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="26" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H29">
-    <cfRule type="expression" dxfId="44" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="31" stopIfTrue="1">
       <formula>OR($G28="Planned",$G28="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="32" stopIfTrue="1">
       <formula>$G28="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="42" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="29" stopIfTrue="1">
       <formula>OR($G23="Planned",$G23="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="30" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="40" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="27" stopIfTrue="1">
       <formula>$G23="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="28" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B29">
-    <cfRule type="expression" dxfId="38" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="15" stopIfTrue="1">
       <formula>$G24="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="16" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B29">
-    <cfRule type="expression" dxfId="36" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="19" stopIfTrue="1">
       <formula>OR($G24="Planned",$G24="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="20" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A27">
-    <cfRule type="expression" dxfId="34" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="13" stopIfTrue="1">
       <formula>OR($G24="Planned",$G24="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="14" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I31">
-    <cfRule type="expression" dxfId="32" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="1" stopIfTrue="1">
       <formula>$C23="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
       <formula>$C23="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="3" stopIfTrue="1">
       <formula>$C23="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3796,11 +3786,11 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22:F22"/>
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4668,7 +4658,7 @@
         <v>65</v>
       </c>
       <c r="H17" s="51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I17" s="46" t="s">
         <v>30</v>
@@ -4679,7 +4669,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C18" s="45" t="s">
         <v>31</v>
@@ -4697,7 +4687,7 @@
         <v>65</v>
       </c>
       <c r="H18" s="51" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I18" s="46" t="s">
         <v>30</v>
@@ -4708,7 +4698,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="45" t="s">
         <v>31</v>
@@ -4726,7 +4716,7 @@
         <v>65</v>
       </c>
       <c r="H19" s="51" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I19" s="46" t="s">
         <v>30</v>
@@ -4737,7 +4727,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" s="45" t="s">
         <v>31</v>
@@ -4755,18 +4745,18 @@
         <v>65</v>
       </c>
       <c r="H20" s="51" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I20" s="46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="45">
         <v>14</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C21" s="45" t="s">
         <v>31</v>
@@ -4784,7 +4774,7 @@
         <v>65</v>
       </c>
       <c r="H21" s="51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I21" s="46" t="s">
         <v>30</v>
@@ -4795,26 +4785,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="45">
-        <v>3</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="45">
-        <v>1</v>
-      </c>
-      <c r="G22" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>44</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="46"/>
       <c r="I22" s="46" t="s">
         <v>30</v>
       </c>
@@ -4824,7 +4804,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C23" s="45" t="s">
         <v>12</v>
@@ -4843,7 +4823,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" s="45" t="s">
         <v>12</v>
@@ -4862,7 +4842,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="45" t="s">
         <v>12</v>
@@ -4881,7 +4861,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="45" t="s">
         <v>12</v>
@@ -4900,7 +4880,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" s="45" t="s">
         <v>12</v>
@@ -4915,15 +4895,9 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="45">
-        <v>21</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>12</v>
-      </c>
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
@@ -4985,32 +4959,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H33">
     <sortCondition ref="E5"/>
     <sortCondition ref="C5"/>
   </sortState>
-  <conditionalFormatting sqref="A4:I4 C19:D21 A29:H139 A19:A28 A17:D18 I8:I33 A5:H16 F17:H21 B24:H28 C23:H23 C22 G22:H22">
-    <cfRule type="expression" dxfId="29" priority="52" stopIfTrue="1">
+  <conditionalFormatting sqref="A4:I4 C18:D20 A28:H138 A18:A27 A5:H16 B23:H27 C22:H22 C21 G21:H21 A17:D17 I8:I32 E17:H20">
+    <cfRule type="expression" dxfId="2" priority="52" stopIfTrue="1">
       <formula>$C4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="53" stopIfTrue="1">
       <formula>$C4="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="54" stopIfTrue="1">
       <formula>$C4="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5047,74 +5008,63 @@
       <formula>$C7="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B21">
+  <conditionalFormatting sqref="B18:B20">
     <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
-      <formula>$C19="Done"</formula>
+      <formula>$C18="Done"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
-      <formula>$C19="Ongoing"</formula>
+      <formula>$C18="Ongoing"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
-      <formula>$C19="Removed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E21">
-    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
-      <formula>$C17="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
-      <formula>$C17="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
-      <formula>$C17="Removed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="11" priority="146" stopIfTrue="1">
-      <formula>$C22="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="147" stopIfTrue="1">
-      <formula>$C22="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="148" stopIfTrue="1">
-      <formula>$C22="Removed"</formula>
+      <formula>$C18="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
-      <formula>$C22="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>$C22="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
-      <formula>$C22="Removed"</formula>
+    <cfRule type="expression" dxfId="14" priority="146" stopIfTrue="1">
+      <formula>$C21="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="147" stopIfTrue="1">
+      <formula>$C21="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="148" stopIfTrue="1">
+      <formula>$C21="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22 F22">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
-      <formula>$C22="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>$C22="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
-      <formula>$C22="Removed"</formula>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+      <formula>$C21="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+      <formula>$C21="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+      <formula>$C21="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>$C22="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$C22="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$C22="Removed"</formula>
+  <conditionalFormatting sqref="D21 F21">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+      <formula>$C21="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+      <formula>$C21="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+      <formula>$C21="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+      <formula>$C21="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>$C21="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>$C21="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="IY30:IY139 SU30:SU139 ACQ30:ACQ139 AMM30:AMM139 AWI30:AWI139 BGE30:BGE139 BQA30:BQA139 BZW30:BZW139 CJS30:CJS139 CTO30:CTO139 DDK30:DDK139 DNG30:DNG139 DXC30:DXC139 EGY30:EGY139 EQU30:EQU139 FAQ30:FAQ139 FKM30:FKM139 FUI30:FUI139 GEE30:GEE139 GOA30:GOA139 GXW30:GXW139 HHS30:HHS139 HRO30:HRO139 IBK30:IBK139 ILG30:ILG139 IVC30:IVC139 JEY30:JEY139 JOU30:JOU139 JYQ30:JYQ139 KIM30:KIM139 KSI30:KSI139 LCE30:LCE139 LMA30:LMA139 LVW30:LVW139 MFS30:MFS139 MPO30:MPO139 MZK30:MZK139 NJG30:NJG139 NTC30:NTC139 OCY30:OCY139 OMU30:OMU139 OWQ30:OWQ139 PGM30:PGM139 PQI30:PQI139 QAE30:QAE139 QKA30:QKA139 QTW30:QTW139 RDS30:RDS139 RNO30:RNO139 RXK30:RXK139 SHG30:SHG139 SRC30:SRC139 TAY30:TAY139 TKU30:TKU139 TUQ30:TUQ139 UEM30:UEM139 UOI30:UOI139 UYE30:UYE139 VIA30:VIA139 VRW30:VRW139 WBS30:WBS139 WLO30:WLO139 WVK30:WVK139 C65566:C65675 IY65566:IY65675 SU65566:SU65675 ACQ65566:ACQ65675 AMM65566:AMM65675 AWI65566:AWI65675 BGE65566:BGE65675 BQA65566:BQA65675 BZW65566:BZW65675 CJS65566:CJS65675 CTO65566:CTO65675 DDK65566:DDK65675 DNG65566:DNG65675 DXC65566:DXC65675 EGY65566:EGY65675 EQU65566:EQU65675 FAQ65566:FAQ65675 FKM65566:FKM65675 FUI65566:FUI65675 GEE65566:GEE65675 GOA65566:GOA65675 GXW65566:GXW65675 HHS65566:HHS65675 HRO65566:HRO65675 IBK65566:IBK65675 ILG65566:ILG65675 IVC65566:IVC65675 JEY65566:JEY65675 JOU65566:JOU65675 JYQ65566:JYQ65675 KIM65566:KIM65675 KSI65566:KSI65675 LCE65566:LCE65675 LMA65566:LMA65675 LVW65566:LVW65675 MFS65566:MFS65675 MPO65566:MPO65675 MZK65566:MZK65675 NJG65566:NJG65675 NTC65566:NTC65675 OCY65566:OCY65675 OMU65566:OMU65675 OWQ65566:OWQ65675 PGM65566:PGM65675 PQI65566:PQI65675 QAE65566:QAE65675 QKA65566:QKA65675 QTW65566:QTW65675 RDS65566:RDS65675 RNO65566:RNO65675 RXK65566:RXK65675 SHG65566:SHG65675 SRC65566:SRC65675 TAY65566:TAY65675 TKU65566:TKU65675 TUQ65566:TUQ65675 UEM65566:UEM65675 UOI65566:UOI65675 UYE65566:UYE65675 VIA65566:VIA65675 VRW65566:VRW65675 WBS65566:WBS65675 WLO65566:WLO65675 WVK65566:WVK65675 C131102:C131211 IY131102:IY131211 SU131102:SU131211 ACQ131102:ACQ131211 AMM131102:AMM131211 AWI131102:AWI131211 BGE131102:BGE131211 BQA131102:BQA131211 BZW131102:BZW131211 CJS131102:CJS131211 CTO131102:CTO131211 DDK131102:DDK131211 DNG131102:DNG131211 DXC131102:DXC131211 EGY131102:EGY131211 EQU131102:EQU131211 FAQ131102:FAQ131211 FKM131102:FKM131211 FUI131102:FUI131211 GEE131102:GEE131211 GOA131102:GOA131211 GXW131102:GXW131211 HHS131102:HHS131211 HRO131102:HRO131211 IBK131102:IBK131211 ILG131102:ILG131211 IVC131102:IVC131211 JEY131102:JEY131211 JOU131102:JOU131211 JYQ131102:JYQ131211 KIM131102:KIM131211 KSI131102:KSI131211 LCE131102:LCE131211 LMA131102:LMA131211 LVW131102:LVW131211 MFS131102:MFS131211 MPO131102:MPO131211 MZK131102:MZK131211 NJG131102:NJG131211 NTC131102:NTC131211 OCY131102:OCY131211 OMU131102:OMU131211 OWQ131102:OWQ131211 PGM131102:PGM131211 PQI131102:PQI131211 QAE131102:QAE131211 QKA131102:QKA131211 QTW131102:QTW131211 RDS131102:RDS131211 RNO131102:RNO131211 RXK131102:RXK131211 SHG131102:SHG131211 SRC131102:SRC131211 TAY131102:TAY131211 TKU131102:TKU131211 TUQ131102:TUQ131211 UEM131102:UEM131211 UOI131102:UOI131211 UYE131102:UYE131211 VIA131102:VIA131211 VRW131102:VRW131211 WBS131102:WBS131211 WLO131102:WLO131211 WVK131102:WVK131211 C196638:C196747 IY196638:IY196747 SU196638:SU196747 ACQ196638:ACQ196747 AMM196638:AMM196747 AWI196638:AWI196747 BGE196638:BGE196747 BQA196638:BQA196747 BZW196638:BZW196747 CJS196638:CJS196747 CTO196638:CTO196747 DDK196638:DDK196747 DNG196638:DNG196747 DXC196638:DXC196747 EGY196638:EGY196747 EQU196638:EQU196747 FAQ196638:FAQ196747 FKM196638:FKM196747 FUI196638:FUI196747 GEE196638:GEE196747 GOA196638:GOA196747 GXW196638:GXW196747 HHS196638:HHS196747 HRO196638:HRO196747 IBK196638:IBK196747 ILG196638:ILG196747 IVC196638:IVC196747 JEY196638:JEY196747 JOU196638:JOU196747 JYQ196638:JYQ196747 KIM196638:KIM196747 KSI196638:KSI196747 LCE196638:LCE196747 LMA196638:LMA196747 LVW196638:LVW196747 MFS196638:MFS196747 MPO196638:MPO196747 MZK196638:MZK196747 NJG196638:NJG196747 NTC196638:NTC196747 OCY196638:OCY196747 OMU196638:OMU196747 OWQ196638:OWQ196747 PGM196638:PGM196747 PQI196638:PQI196747 QAE196638:QAE196747 QKA196638:QKA196747 QTW196638:QTW196747 RDS196638:RDS196747 RNO196638:RNO196747 RXK196638:RXK196747 SHG196638:SHG196747 SRC196638:SRC196747 TAY196638:TAY196747 TKU196638:TKU196747 TUQ196638:TUQ196747 UEM196638:UEM196747 UOI196638:UOI196747 UYE196638:UYE196747 VIA196638:VIA196747 VRW196638:VRW196747 WBS196638:WBS196747 WLO196638:WLO196747 WVK196638:WVK196747 C262174:C262283 IY262174:IY262283 SU262174:SU262283 ACQ262174:ACQ262283 AMM262174:AMM262283 AWI262174:AWI262283 BGE262174:BGE262283 BQA262174:BQA262283 BZW262174:BZW262283 CJS262174:CJS262283 CTO262174:CTO262283 DDK262174:DDK262283 DNG262174:DNG262283 DXC262174:DXC262283 EGY262174:EGY262283 EQU262174:EQU262283 FAQ262174:FAQ262283 FKM262174:FKM262283 FUI262174:FUI262283 GEE262174:GEE262283 GOA262174:GOA262283 GXW262174:GXW262283 HHS262174:HHS262283 HRO262174:HRO262283 IBK262174:IBK262283 ILG262174:ILG262283 IVC262174:IVC262283 JEY262174:JEY262283 JOU262174:JOU262283 JYQ262174:JYQ262283 KIM262174:KIM262283 KSI262174:KSI262283 LCE262174:LCE262283 LMA262174:LMA262283 LVW262174:LVW262283 MFS262174:MFS262283 MPO262174:MPO262283 MZK262174:MZK262283 NJG262174:NJG262283 NTC262174:NTC262283 OCY262174:OCY262283 OMU262174:OMU262283 OWQ262174:OWQ262283 PGM262174:PGM262283 PQI262174:PQI262283 QAE262174:QAE262283 QKA262174:QKA262283 QTW262174:QTW262283 RDS262174:RDS262283 RNO262174:RNO262283 RXK262174:RXK262283 SHG262174:SHG262283 SRC262174:SRC262283 TAY262174:TAY262283 TKU262174:TKU262283 TUQ262174:TUQ262283 UEM262174:UEM262283 UOI262174:UOI262283 UYE262174:UYE262283 VIA262174:VIA262283 VRW262174:VRW262283 WBS262174:WBS262283 WLO262174:WLO262283 WVK262174:WVK262283 C327710:C327819 IY327710:IY327819 SU327710:SU327819 ACQ327710:ACQ327819 AMM327710:AMM327819 AWI327710:AWI327819 BGE327710:BGE327819 BQA327710:BQA327819 BZW327710:BZW327819 CJS327710:CJS327819 CTO327710:CTO327819 DDK327710:DDK327819 DNG327710:DNG327819 DXC327710:DXC327819 EGY327710:EGY327819 EQU327710:EQU327819 FAQ327710:FAQ327819 FKM327710:FKM327819 FUI327710:FUI327819 GEE327710:GEE327819 GOA327710:GOA327819 GXW327710:GXW327819 HHS327710:HHS327819 HRO327710:HRO327819 IBK327710:IBK327819 ILG327710:ILG327819 IVC327710:IVC327819 JEY327710:JEY327819 JOU327710:JOU327819 JYQ327710:JYQ327819 KIM327710:KIM327819 KSI327710:KSI327819 LCE327710:LCE327819 LMA327710:LMA327819 LVW327710:LVW327819 MFS327710:MFS327819 MPO327710:MPO327819 MZK327710:MZK327819 NJG327710:NJG327819 NTC327710:NTC327819 OCY327710:OCY327819 OMU327710:OMU327819 OWQ327710:OWQ327819 PGM327710:PGM327819 PQI327710:PQI327819 QAE327710:QAE327819 QKA327710:QKA327819 QTW327710:QTW327819 RDS327710:RDS327819 RNO327710:RNO327819 RXK327710:RXK327819 SHG327710:SHG327819 SRC327710:SRC327819 TAY327710:TAY327819 TKU327710:TKU327819 TUQ327710:TUQ327819 UEM327710:UEM327819 UOI327710:UOI327819 UYE327710:UYE327819 VIA327710:VIA327819 VRW327710:VRW327819 WBS327710:WBS327819 WLO327710:WLO327819 WVK327710:WVK327819 C393246:C393355 IY393246:IY393355 SU393246:SU393355 ACQ393246:ACQ393355 AMM393246:AMM393355 AWI393246:AWI393355 BGE393246:BGE393355 BQA393246:BQA393355 BZW393246:BZW393355 CJS393246:CJS393355 CTO393246:CTO393355 DDK393246:DDK393355 DNG393246:DNG393355 DXC393246:DXC393355 EGY393246:EGY393355 EQU393246:EQU393355 FAQ393246:FAQ393355 FKM393246:FKM393355 FUI393246:FUI393355 GEE393246:GEE393355 GOA393246:GOA393355 GXW393246:GXW393355 HHS393246:HHS393355 HRO393246:HRO393355 IBK393246:IBK393355 ILG393246:ILG393355 IVC393246:IVC393355 JEY393246:JEY393355 JOU393246:JOU393355 JYQ393246:JYQ393355 KIM393246:KIM393355 KSI393246:KSI393355 LCE393246:LCE393355 LMA393246:LMA393355 LVW393246:LVW393355 MFS393246:MFS393355 MPO393246:MPO393355 MZK393246:MZK393355 NJG393246:NJG393355 NTC393246:NTC393355 OCY393246:OCY393355 OMU393246:OMU393355 OWQ393246:OWQ393355 PGM393246:PGM393355 PQI393246:PQI393355 QAE393246:QAE393355 QKA393246:QKA393355 QTW393246:QTW393355 RDS393246:RDS393355 RNO393246:RNO393355 RXK393246:RXK393355 SHG393246:SHG393355 SRC393246:SRC393355 TAY393246:TAY393355 TKU393246:TKU393355 TUQ393246:TUQ393355 UEM393246:UEM393355 UOI393246:UOI393355 UYE393246:UYE393355 VIA393246:VIA393355 VRW393246:VRW393355 WBS393246:WBS393355 WLO393246:WLO393355 WVK393246:WVK393355 C458782:C458891 IY458782:IY458891 SU458782:SU458891 ACQ458782:ACQ458891 AMM458782:AMM458891 AWI458782:AWI458891 BGE458782:BGE458891 BQA458782:BQA458891 BZW458782:BZW458891 CJS458782:CJS458891 CTO458782:CTO458891 DDK458782:DDK458891 DNG458782:DNG458891 DXC458782:DXC458891 EGY458782:EGY458891 EQU458782:EQU458891 FAQ458782:FAQ458891 FKM458782:FKM458891 FUI458782:FUI458891 GEE458782:GEE458891 GOA458782:GOA458891 GXW458782:GXW458891 HHS458782:HHS458891 HRO458782:HRO458891 IBK458782:IBK458891 ILG458782:ILG458891 IVC458782:IVC458891 JEY458782:JEY458891 JOU458782:JOU458891 JYQ458782:JYQ458891 KIM458782:KIM458891 KSI458782:KSI458891 LCE458782:LCE458891 LMA458782:LMA458891 LVW458782:LVW458891 MFS458782:MFS458891 MPO458782:MPO458891 MZK458782:MZK458891 NJG458782:NJG458891 NTC458782:NTC458891 OCY458782:OCY458891 OMU458782:OMU458891 OWQ458782:OWQ458891 PGM458782:PGM458891 PQI458782:PQI458891 QAE458782:QAE458891 QKA458782:QKA458891 QTW458782:QTW458891 RDS458782:RDS458891 RNO458782:RNO458891 RXK458782:RXK458891 SHG458782:SHG458891 SRC458782:SRC458891 TAY458782:TAY458891 TKU458782:TKU458891 TUQ458782:TUQ458891 UEM458782:UEM458891 UOI458782:UOI458891 UYE458782:UYE458891 VIA458782:VIA458891 VRW458782:VRW458891 WBS458782:WBS458891 WLO458782:WLO458891 WVK458782:WVK458891 C524318:C524427 IY524318:IY524427 SU524318:SU524427 ACQ524318:ACQ524427 AMM524318:AMM524427 AWI524318:AWI524427 BGE524318:BGE524427 BQA524318:BQA524427 BZW524318:BZW524427 CJS524318:CJS524427 CTO524318:CTO524427 DDK524318:DDK524427 DNG524318:DNG524427 DXC524318:DXC524427 EGY524318:EGY524427 EQU524318:EQU524427 FAQ524318:FAQ524427 FKM524318:FKM524427 FUI524318:FUI524427 GEE524318:GEE524427 GOA524318:GOA524427 GXW524318:GXW524427 HHS524318:HHS524427 HRO524318:HRO524427 IBK524318:IBK524427 ILG524318:ILG524427 IVC524318:IVC524427 JEY524318:JEY524427 JOU524318:JOU524427 JYQ524318:JYQ524427 KIM524318:KIM524427 KSI524318:KSI524427 LCE524318:LCE524427 LMA524318:LMA524427 LVW524318:LVW524427 MFS524318:MFS524427 MPO524318:MPO524427 MZK524318:MZK524427 NJG524318:NJG524427 NTC524318:NTC524427 OCY524318:OCY524427 OMU524318:OMU524427 OWQ524318:OWQ524427 PGM524318:PGM524427 PQI524318:PQI524427 QAE524318:QAE524427 QKA524318:QKA524427 QTW524318:QTW524427 RDS524318:RDS524427 RNO524318:RNO524427 RXK524318:RXK524427 SHG524318:SHG524427 SRC524318:SRC524427 TAY524318:TAY524427 TKU524318:TKU524427 TUQ524318:TUQ524427 UEM524318:UEM524427 UOI524318:UOI524427 UYE524318:UYE524427 VIA524318:VIA524427 VRW524318:VRW524427 WBS524318:WBS524427 WLO524318:WLO524427 WVK524318:WVK524427 C589854:C589963 IY589854:IY589963 SU589854:SU589963 ACQ589854:ACQ589963 AMM589854:AMM589963 AWI589854:AWI589963 BGE589854:BGE589963 BQA589854:BQA589963 BZW589854:BZW589963 CJS589854:CJS589963 CTO589854:CTO589963 DDK589854:DDK589963 DNG589854:DNG589963 DXC589854:DXC589963 EGY589854:EGY589963 EQU589854:EQU589963 FAQ589854:FAQ589963 FKM589854:FKM589963 FUI589854:FUI589963 GEE589854:GEE589963 GOA589854:GOA589963 GXW589854:GXW589963 HHS589854:HHS589963 HRO589854:HRO589963 IBK589854:IBK589963 ILG589854:ILG589963 IVC589854:IVC589963 JEY589854:JEY589963 JOU589854:JOU589963 JYQ589854:JYQ589963 KIM589854:KIM589963 KSI589854:KSI589963 LCE589854:LCE589963 LMA589854:LMA589963 LVW589854:LVW589963 MFS589854:MFS589963 MPO589854:MPO589963 MZK589854:MZK589963 NJG589854:NJG589963 NTC589854:NTC589963 OCY589854:OCY589963 OMU589854:OMU589963 OWQ589854:OWQ589963 PGM589854:PGM589963 PQI589854:PQI589963 QAE589854:QAE589963 QKA589854:QKA589963 QTW589854:QTW589963 RDS589854:RDS589963 RNO589854:RNO589963 RXK589854:RXK589963 SHG589854:SHG589963 SRC589854:SRC589963 TAY589854:TAY589963 TKU589854:TKU589963 TUQ589854:TUQ589963 UEM589854:UEM589963 UOI589854:UOI589963 UYE589854:UYE589963 VIA589854:VIA589963 VRW589854:VRW589963 WBS589854:WBS589963 WLO589854:WLO589963 WVK589854:WVK589963 C655390:C655499 IY655390:IY655499 SU655390:SU655499 ACQ655390:ACQ655499 AMM655390:AMM655499 AWI655390:AWI655499 BGE655390:BGE655499 BQA655390:BQA655499 BZW655390:BZW655499 CJS655390:CJS655499 CTO655390:CTO655499 DDK655390:DDK655499 DNG655390:DNG655499 DXC655390:DXC655499 EGY655390:EGY655499 EQU655390:EQU655499 FAQ655390:FAQ655499 FKM655390:FKM655499 FUI655390:FUI655499 GEE655390:GEE655499 GOA655390:GOA655499 GXW655390:GXW655499 HHS655390:HHS655499 HRO655390:HRO655499 IBK655390:IBK655499 ILG655390:ILG655499 IVC655390:IVC655499 JEY655390:JEY655499 JOU655390:JOU655499 JYQ655390:JYQ655499 KIM655390:KIM655499 KSI655390:KSI655499 LCE655390:LCE655499 LMA655390:LMA655499 LVW655390:LVW655499 MFS655390:MFS655499 MPO655390:MPO655499 MZK655390:MZK655499 NJG655390:NJG655499 NTC655390:NTC655499 OCY655390:OCY655499 OMU655390:OMU655499 OWQ655390:OWQ655499 PGM655390:PGM655499 PQI655390:PQI655499 QAE655390:QAE655499 QKA655390:QKA655499 QTW655390:QTW655499 RDS655390:RDS655499 RNO655390:RNO655499 RXK655390:RXK655499 SHG655390:SHG655499 SRC655390:SRC655499 TAY655390:TAY655499 TKU655390:TKU655499 TUQ655390:TUQ655499 UEM655390:UEM655499 UOI655390:UOI655499 UYE655390:UYE655499 VIA655390:VIA655499 VRW655390:VRW655499 WBS655390:WBS655499 WLO655390:WLO655499 WVK655390:WVK655499 C720926:C721035 IY720926:IY721035 SU720926:SU721035 ACQ720926:ACQ721035 AMM720926:AMM721035 AWI720926:AWI721035 BGE720926:BGE721035 BQA720926:BQA721035 BZW720926:BZW721035 CJS720926:CJS721035 CTO720926:CTO721035 DDK720926:DDK721035 DNG720926:DNG721035 DXC720926:DXC721035 EGY720926:EGY721035 EQU720926:EQU721035 FAQ720926:FAQ721035 FKM720926:FKM721035 FUI720926:FUI721035 GEE720926:GEE721035 GOA720926:GOA721035 GXW720926:GXW721035 HHS720926:HHS721035 HRO720926:HRO721035 IBK720926:IBK721035 ILG720926:ILG721035 IVC720926:IVC721035 JEY720926:JEY721035 JOU720926:JOU721035 JYQ720926:JYQ721035 KIM720926:KIM721035 KSI720926:KSI721035 LCE720926:LCE721035 LMA720926:LMA721035 LVW720926:LVW721035 MFS720926:MFS721035 MPO720926:MPO721035 MZK720926:MZK721035 NJG720926:NJG721035 NTC720926:NTC721035 OCY720926:OCY721035 OMU720926:OMU721035 OWQ720926:OWQ721035 PGM720926:PGM721035 PQI720926:PQI721035 QAE720926:QAE721035 QKA720926:QKA721035 QTW720926:QTW721035 RDS720926:RDS721035 RNO720926:RNO721035 RXK720926:RXK721035 SHG720926:SHG721035 SRC720926:SRC721035 TAY720926:TAY721035 TKU720926:TKU721035 TUQ720926:TUQ721035 UEM720926:UEM721035 UOI720926:UOI721035 UYE720926:UYE721035 VIA720926:VIA721035 VRW720926:VRW721035 WBS720926:WBS721035 WLO720926:WLO721035 WVK720926:WVK721035 C786462:C786571 IY786462:IY786571 SU786462:SU786571 ACQ786462:ACQ786571 AMM786462:AMM786571 AWI786462:AWI786571 BGE786462:BGE786571 BQA786462:BQA786571 BZW786462:BZW786571 CJS786462:CJS786571 CTO786462:CTO786571 DDK786462:DDK786571 DNG786462:DNG786571 DXC786462:DXC786571 EGY786462:EGY786571 EQU786462:EQU786571 FAQ786462:FAQ786571 FKM786462:FKM786571 FUI786462:FUI786571 GEE786462:GEE786571 GOA786462:GOA786571 GXW786462:GXW786571 HHS786462:HHS786571 HRO786462:HRO786571 IBK786462:IBK786571 ILG786462:ILG786571 IVC786462:IVC786571 JEY786462:JEY786571 JOU786462:JOU786571 JYQ786462:JYQ786571 KIM786462:KIM786571 KSI786462:KSI786571 LCE786462:LCE786571 LMA786462:LMA786571 LVW786462:LVW786571 MFS786462:MFS786571 MPO786462:MPO786571 MZK786462:MZK786571 NJG786462:NJG786571 NTC786462:NTC786571 OCY786462:OCY786571 OMU786462:OMU786571 OWQ786462:OWQ786571 PGM786462:PGM786571 PQI786462:PQI786571 QAE786462:QAE786571 QKA786462:QKA786571 QTW786462:QTW786571 RDS786462:RDS786571 RNO786462:RNO786571 RXK786462:RXK786571 SHG786462:SHG786571 SRC786462:SRC786571 TAY786462:TAY786571 TKU786462:TKU786571 TUQ786462:TUQ786571 UEM786462:UEM786571 UOI786462:UOI786571 UYE786462:UYE786571 VIA786462:VIA786571 VRW786462:VRW786571 WBS786462:WBS786571 WLO786462:WLO786571 WVK786462:WVK786571 C851998:C852107 IY851998:IY852107 SU851998:SU852107 ACQ851998:ACQ852107 AMM851998:AMM852107 AWI851998:AWI852107 BGE851998:BGE852107 BQA851998:BQA852107 BZW851998:BZW852107 CJS851998:CJS852107 CTO851998:CTO852107 DDK851998:DDK852107 DNG851998:DNG852107 DXC851998:DXC852107 EGY851998:EGY852107 EQU851998:EQU852107 FAQ851998:FAQ852107 FKM851998:FKM852107 FUI851998:FUI852107 GEE851998:GEE852107 GOA851998:GOA852107 GXW851998:GXW852107 HHS851998:HHS852107 HRO851998:HRO852107 IBK851998:IBK852107 ILG851998:ILG852107 IVC851998:IVC852107 JEY851998:JEY852107 JOU851998:JOU852107 JYQ851998:JYQ852107 KIM851998:KIM852107 KSI851998:KSI852107 LCE851998:LCE852107 LMA851998:LMA852107 LVW851998:LVW852107 MFS851998:MFS852107 MPO851998:MPO852107 MZK851998:MZK852107 NJG851998:NJG852107 NTC851998:NTC852107 OCY851998:OCY852107 OMU851998:OMU852107 OWQ851998:OWQ852107 PGM851998:PGM852107 PQI851998:PQI852107 QAE851998:QAE852107 QKA851998:QKA852107 QTW851998:QTW852107 RDS851998:RDS852107 RNO851998:RNO852107 RXK851998:RXK852107 SHG851998:SHG852107 SRC851998:SRC852107 TAY851998:TAY852107 TKU851998:TKU852107 TUQ851998:TUQ852107 UEM851998:UEM852107 UOI851998:UOI852107 UYE851998:UYE852107 VIA851998:VIA852107 VRW851998:VRW852107 WBS851998:WBS852107 WLO851998:WLO852107 WVK851998:WVK852107 C917534:C917643 IY917534:IY917643 SU917534:SU917643 ACQ917534:ACQ917643 AMM917534:AMM917643 AWI917534:AWI917643 BGE917534:BGE917643 BQA917534:BQA917643 BZW917534:BZW917643 CJS917534:CJS917643 CTO917534:CTO917643 DDK917534:DDK917643 DNG917534:DNG917643 DXC917534:DXC917643 EGY917534:EGY917643 EQU917534:EQU917643 FAQ917534:FAQ917643 FKM917534:FKM917643 FUI917534:FUI917643 GEE917534:GEE917643 GOA917534:GOA917643 GXW917534:GXW917643 HHS917534:HHS917643 HRO917534:HRO917643 IBK917534:IBK917643 ILG917534:ILG917643 IVC917534:IVC917643 JEY917534:JEY917643 JOU917534:JOU917643 JYQ917534:JYQ917643 KIM917534:KIM917643 KSI917534:KSI917643 LCE917534:LCE917643 LMA917534:LMA917643 LVW917534:LVW917643 MFS917534:MFS917643 MPO917534:MPO917643 MZK917534:MZK917643 NJG917534:NJG917643 NTC917534:NTC917643 OCY917534:OCY917643 OMU917534:OMU917643 OWQ917534:OWQ917643 PGM917534:PGM917643 PQI917534:PQI917643 QAE917534:QAE917643 QKA917534:QKA917643 QTW917534:QTW917643 RDS917534:RDS917643 RNO917534:RNO917643 RXK917534:RXK917643 SHG917534:SHG917643 SRC917534:SRC917643 TAY917534:TAY917643 TKU917534:TKU917643 TUQ917534:TUQ917643 UEM917534:UEM917643 UOI917534:UOI917643 UYE917534:UYE917643 VIA917534:VIA917643 VRW917534:VRW917643 WBS917534:WBS917643 WLO917534:WLO917643 WVK917534:WVK917643 C983070:C983179 IY983070:IY983179 SU983070:SU983179 ACQ983070:ACQ983179 AMM983070:AMM983179 AWI983070:AWI983179 BGE983070:BGE983179 BQA983070:BQA983179 BZW983070:BZW983179 CJS983070:CJS983179 CTO983070:CTO983179 DDK983070:DDK983179 DNG983070:DNG983179 DXC983070:DXC983179 EGY983070:EGY983179 EQU983070:EQU983179 FAQ983070:FAQ983179 FKM983070:FKM983179 FUI983070:FUI983179 GEE983070:GEE983179 GOA983070:GOA983179 GXW983070:GXW983179 HHS983070:HHS983179 HRO983070:HRO983179 IBK983070:IBK983179 ILG983070:ILG983179 IVC983070:IVC983179 JEY983070:JEY983179 JOU983070:JOU983179 JYQ983070:JYQ983179 KIM983070:KIM983179 KSI983070:KSI983179 LCE983070:LCE983179 LMA983070:LMA983179 LVW983070:LVW983179 MFS983070:MFS983179 MPO983070:MPO983179 MZK983070:MZK983179 NJG983070:NJG983179 NTC983070:NTC983179 OCY983070:OCY983179 OMU983070:OMU983179 OWQ983070:OWQ983179 PGM983070:PGM983179 PQI983070:PQI983179 QAE983070:QAE983179 QKA983070:QKA983179 QTW983070:QTW983179 RDS983070:RDS983179 RNO983070:RNO983179 RXK983070:RXK983179 SHG983070:SHG983179 SRC983070:SRC983179 TAY983070:TAY983179 TKU983070:TKU983179 TUQ983070:TUQ983179 UEM983070:UEM983179 UOI983070:UOI983179 UYE983070:UYE983179 VIA983070:VIA983179 VRW983070:VRW983179 WBS983070:WBS983179 WLO983070:WLO983179 WVK983070:WVK983179 WVK983044:WVK983068 C65540:C65564 IY65540:IY65564 SU65540:SU65564 ACQ65540:ACQ65564 AMM65540:AMM65564 AWI65540:AWI65564 BGE65540:BGE65564 BQA65540:BQA65564 BZW65540:BZW65564 CJS65540:CJS65564 CTO65540:CTO65564 DDK65540:DDK65564 DNG65540:DNG65564 DXC65540:DXC65564 EGY65540:EGY65564 EQU65540:EQU65564 FAQ65540:FAQ65564 FKM65540:FKM65564 FUI65540:FUI65564 GEE65540:GEE65564 GOA65540:GOA65564 GXW65540:GXW65564 HHS65540:HHS65564 HRO65540:HRO65564 IBK65540:IBK65564 ILG65540:ILG65564 IVC65540:IVC65564 JEY65540:JEY65564 JOU65540:JOU65564 JYQ65540:JYQ65564 KIM65540:KIM65564 KSI65540:KSI65564 LCE65540:LCE65564 LMA65540:LMA65564 LVW65540:LVW65564 MFS65540:MFS65564 MPO65540:MPO65564 MZK65540:MZK65564 NJG65540:NJG65564 NTC65540:NTC65564 OCY65540:OCY65564 OMU65540:OMU65564 OWQ65540:OWQ65564 PGM65540:PGM65564 PQI65540:PQI65564 QAE65540:QAE65564 QKA65540:QKA65564 QTW65540:QTW65564 RDS65540:RDS65564 RNO65540:RNO65564 RXK65540:RXK65564 SHG65540:SHG65564 SRC65540:SRC65564 TAY65540:TAY65564 TKU65540:TKU65564 TUQ65540:TUQ65564 UEM65540:UEM65564 UOI65540:UOI65564 UYE65540:UYE65564 VIA65540:VIA65564 VRW65540:VRW65564 WBS65540:WBS65564 WLO65540:WLO65564 WVK65540:WVK65564 C131076:C131100 IY131076:IY131100 SU131076:SU131100 ACQ131076:ACQ131100 AMM131076:AMM131100 AWI131076:AWI131100 BGE131076:BGE131100 BQA131076:BQA131100 BZW131076:BZW131100 CJS131076:CJS131100 CTO131076:CTO131100 DDK131076:DDK131100 DNG131076:DNG131100 DXC131076:DXC131100 EGY131076:EGY131100 EQU131076:EQU131100 FAQ131076:FAQ131100 FKM131076:FKM131100 FUI131076:FUI131100 GEE131076:GEE131100 GOA131076:GOA131100 GXW131076:GXW131100 HHS131076:HHS131100 HRO131076:HRO131100 IBK131076:IBK131100 ILG131076:ILG131100 IVC131076:IVC131100 JEY131076:JEY131100 JOU131076:JOU131100 JYQ131076:JYQ131100 KIM131076:KIM131100 KSI131076:KSI131100 LCE131076:LCE131100 LMA131076:LMA131100 LVW131076:LVW131100 MFS131076:MFS131100 MPO131076:MPO131100 MZK131076:MZK131100 NJG131076:NJG131100 NTC131076:NTC131100 OCY131076:OCY131100 OMU131076:OMU131100 OWQ131076:OWQ131100 PGM131076:PGM131100 PQI131076:PQI131100 QAE131076:QAE131100 QKA131076:QKA131100 QTW131076:QTW131100 RDS131076:RDS131100 RNO131076:RNO131100 RXK131076:RXK131100 SHG131076:SHG131100 SRC131076:SRC131100 TAY131076:TAY131100 TKU131076:TKU131100 TUQ131076:TUQ131100 UEM131076:UEM131100 UOI131076:UOI131100 UYE131076:UYE131100 VIA131076:VIA131100 VRW131076:VRW131100 WBS131076:WBS131100 WLO131076:WLO131100 WVK131076:WVK131100 C196612:C196636 IY196612:IY196636 SU196612:SU196636 ACQ196612:ACQ196636 AMM196612:AMM196636 AWI196612:AWI196636 BGE196612:BGE196636 BQA196612:BQA196636 BZW196612:BZW196636 CJS196612:CJS196636 CTO196612:CTO196636 DDK196612:DDK196636 DNG196612:DNG196636 DXC196612:DXC196636 EGY196612:EGY196636 EQU196612:EQU196636 FAQ196612:FAQ196636 FKM196612:FKM196636 FUI196612:FUI196636 GEE196612:GEE196636 GOA196612:GOA196636 GXW196612:GXW196636 HHS196612:HHS196636 HRO196612:HRO196636 IBK196612:IBK196636 ILG196612:ILG196636 IVC196612:IVC196636 JEY196612:JEY196636 JOU196612:JOU196636 JYQ196612:JYQ196636 KIM196612:KIM196636 KSI196612:KSI196636 LCE196612:LCE196636 LMA196612:LMA196636 LVW196612:LVW196636 MFS196612:MFS196636 MPO196612:MPO196636 MZK196612:MZK196636 NJG196612:NJG196636 NTC196612:NTC196636 OCY196612:OCY196636 OMU196612:OMU196636 OWQ196612:OWQ196636 PGM196612:PGM196636 PQI196612:PQI196636 QAE196612:QAE196636 QKA196612:QKA196636 QTW196612:QTW196636 RDS196612:RDS196636 RNO196612:RNO196636 RXK196612:RXK196636 SHG196612:SHG196636 SRC196612:SRC196636 TAY196612:TAY196636 TKU196612:TKU196636 TUQ196612:TUQ196636 UEM196612:UEM196636 UOI196612:UOI196636 UYE196612:UYE196636 VIA196612:VIA196636 VRW196612:VRW196636 WBS196612:WBS196636 WLO196612:WLO196636 WVK196612:WVK196636 C262148:C262172 IY262148:IY262172 SU262148:SU262172 ACQ262148:ACQ262172 AMM262148:AMM262172 AWI262148:AWI262172 BGE262148:BGE262172 BQA262148:BQA262172 BZW262148:BZW262172 CJS262148:CJS262172 CTO262148:CTO262172 DDK262148:DDK262172 DNG262148:DNG262172 DXC262148:DXC262172 EGY262148:EGY262172 EQU262148:EQU262172 FAQ262148:FAQ262172 FKM262148:FKM262172 FUI262148:FUI262172 GEE262148:GEE262172 GOA262148:GOA262172 GXW262148:GXW262172 HHS262148:HHS262172 HRO262148:HRO262172 IBK262148:IBK262172 ILG262148:ILG262172 IVC262148:IVC262172 JEY262148:JEY262172 JOU262148:JOU262172 JYQ262148:JYQ262172 KIM262148:KIM262172 KSI262148:KSI262172 LCE262148:LCE262172 LMA262148:LMA262172 LVW262148:LVW262172 MFS262148:MFS262172 MPO262148:MPO262172 MZK262148:MZK262172 NJG262148:NJG262172 NTC262148:NTC262172 OCY262148:OCY262172 OMU262148:OMU262172 OWQ262148:OWQ262172 PGM262148:PGM262172 PQI262148:PQI262172 QAE262148:QAE262172 QKA262148:QKA262172 QTW262148:QTW262172 RDS262148:RDS262172 RNO262148:RNO262172 RXK262148:RXK262172 SHG262148:SHG262172 SRC262148:SRC262172 TAY262148:TAY262172 TKU262148:TKU262172 TUQ262148:TUQ262172 UEM262148:UEM262172 UOI262148:UOI262172 UYE262148:UYE262172 VIA262148:VIA262172 VRW262148:VRW262172 WBS262148:WBS262172 WLO262148:WLO262172 WVK262148:WVK262172 C327684:C327708 IY327684:IY327708 SU327684:SU327708 ACQ327684:ACQ327708 AMM327684:AMM327708 AWI327684:AWI327708 BGE327684:BGE327708 BQA327684:BQA327708 BZW327684:BZW327708 CJS327684:CJS327708 CTO327684:CTO327708 DDK327684:DDK327708 DNG327684:DNG327708 DXC327684:DXC327708 EGY327684:EGY327708 EQU327684:EQU327708 FAQ327684:FAQ327708 FKM327684:FKM327708 FUI327684:FUI327708 GEE327684:GEE327708 GOA327684:GOA327708 GXW327684:GXW327708 HHS327684:HHS327708 HRO327684:HRO327708 IBK327684:IBK327708 ILG327684:ILG327708 IVC327684:IVC327708 JEY327684:JEY327708 JOU327684:JOU327708 JYQ327684:JYQ327708 KIM327684:KIM327708 KSI327684:KSI327708 LCE327684:LCE327708 LMA327684:LMA327708 LVW327684:LVW327708 MFS327684:MFS327708 MPO327684:MPO327708 MZK327684:MZK327708 NJG327684:NJG327708 NTC327684:NTC327708 OCY327684:OCY327708 OMU327684:OMU327708 OWQ327684:OWQ327708 PGM327684:PGM327708 PQI327684:PQI327708 QAE327684:QAE327708 QKA327684:QKA327708 QTW327684:QTW327708 RDS327684:RDS327708 RNO327684:RNO327708 RXK327684:RXK327708 SHG327684:SHG327708 SRC327684:SRC327708 TAY327684:TAY327708 TKU327684:TKU327708 TUQ327684:TUQ327708 UEM327684:UEM327708 UOI327684:UOI327708 UYE327684:UYE327708 VIA327684:VIA327708 VRW327684:VRW327708 WBS327684:WBS327708 WLO327684:WLO327708 WVK327684:WVK327708 C393220:C393244 IY393220:IY393244 SU393220:SU393244 ACQ393220:ACQ393244 AMM393220:AMM393244 AWI393220:AWI393244 BGE393220:BGE393244 BQA393220:BQA393244 BZW393220:BZW393244 CJS393220:CJS393244 CTO393220:CTO393244 DDK393220:DDK393244 DNG393220:DNG393244 DXC393220:DXC393244 EGY393220:EGY393244 EQU393220:EQU393244 FAQ393220:FAQ393244 FKM393220:FKM393244 FUI393220:FUI393244 GEE393220:GEE393244 GOA393220:GOA393244 GXW393220:GXW393244 HHS393220:HHS393244 HRO393220:HRO393244 IBK393220:IBK393244 ILG393220:ILG393244 IVC393220:IVC393244 JEY393220:JEY393244 JOU393220:JOU393244 JYQ393220:JYQ393244 KIM393220:KIM393244 KSI393220:KSI393244 LCE393220:LCE393244 LMA393220:LMA393244 LVW393220:LVW393244 MFS393220:MFS393244 MPO393220:MPO393244 MZK393220:MZK393244 NJG393220:NJG393244 NTC393220:NTC393244 OCY393220:OCY393244 OMU393220:OMU393244 OWQ393220:OWQ393244 PGM393220:PGM393244 PQI393220:PQI393244 QAE393220:QAE393244 QKA393220:QKA393244 QTW393220:QTW393244 RDS393220:RDS393244 RNO393220:RNO393244 RXK393220:RXK393244 SHG393220:SHG393244 SRC393220:SRC393244 TAY393220:TAY393244 TKU393220:TKU393244 TUQ393220:TUQ393244 UEM393220:UEM393244 UOI393220:UOI393244 UYE393220:UYE393244 VIA393220:VIA393244 VRW393220:VRW393244 WBS393220:WBS393244 WLO393220:WLO393244 WVK393220:WVK393244 C458756:C458780 IY458756:IY458780 SU458756:SU458780 ACQ458756:ACQ458780 AMM458756:AMM458780 AWI458756:AWI458780 BGE458756:BGE458780 BQA458756:BQA458780 BZW458756:BZW458780 CJS458756:CJS458780 CTO458756:CTO458780 DDK458756:DDK458780 DNG458756:DNG458780 DXC458756:DXC458780 EGY458756:EGY458780 EQU458756:EQU458780 FAQ458756:FAQ458780 FKM458756:FKM458780 FUI458756:FUI458780 GEE458756:GEE458780 GOA458756:GOA458780 GXW458756:GXW458780 HHS458756:HHS458780 HRO458756:HRO458780 IBK458756:IBK458780 ILG458756:ILG458780 IVC458756:IVC458780 JEY458756:JEY458780 JOU458756:JOU458780 JYQ458756:JYQ458780 KIM458756:KIM458780 KSI458756:KSI458780 LCE458756:LCE458780 LMA458756:LMA458780 LVW458756:LVW458780 MFS458756:MFS458780 MPO458756:MPO458780 MZK458756:MZK458780 NJG458756:NJG458780 NTC458756:NTC458780 OCY458756:OCY458780 OMU458756:OMU458780 OWQ458756:OWQ458780 PGM458756:PGM458780 PQI458756:PQI458780 QAE458756:QAE458780 QKA458756:QKA458780 QTW458756:QTW458780 RDS458756:RDS458780 RNO458756:RNO458780 RXK458756:RXK458780 SHG458756:SHG458780 SRC458756:SRC458780 TAY458756:TAY458780 TKU458756:TKU458780 TUQ458756:TUQ458780 UEM458756:UEM458780 UOI458756:UOI458780 UYE458756:UYE458780 VIA458756:VIA458780 VRW458756:VRW458780 WBS458756:WBS458780 WLO458756:WLO458780 WVK458756:WVK458780 C524292:C524316 IY524292:IY524316 SU524292:SU524316 ACQ524292:ACQ524316 AMM524292:AMM524316 AWI524292:AWI524316 BGE524292:BGE524316 BQA524292:BQA524316 BZW524292:BZW524316 CJS524292:CJS524316 CTO524292:CTO524316 DDK524292:DDK524316 DNG524292:DNG524316 DXC524292:DXC524316 EGY524292:EGY524316 EQU524292:EQU524316 FAQ524292:FAQ524316 FKM524292:FKM524316 FUI524292:FUI524316 GEE524292:GEE524316 GOA524292:GOA524316 GXW524292:GXW524316 HHS524292:HHS524316 HRO524292:HRO524316 IBK524292:IBK524316 ILG524292:ILG524316 IVC524292:IVC524316 JEY524292:JEY524316 JOU524292:JOU524316 JYQ524292:JYQ524316 KIM524292:KIM524316 KSI524292:KSI524316 LCE524292:LCE524316 LMA524292:LMA524316 LVW524292:LVW524316 MFS524292:MFS524316 MPO524292:MPO524316 MZK524292:MZK524316 NJG524292:NJG524316 NTC524292:NTC524316 OCY524292:OCY524316 OMU524292:OMU524316 OWQ524292:OWQ524316 PGM524292:PGM524316 PQI524292:PQI524316 QAE524292:QAE524316 QKA524292:QKA524316 QTW524292:QTW524316 RDS524292:RDS524316 RNO524292:RNO524316 RXK524292:RXK524316 SHG524292:SHG524316 SRC524292:SRC524316 TAY524292:TAY524316 TKU524292:TKU524316 TUQ524292:TUQ524316 UEM524292:UEM524316 UOI524292:UOI524316 UYE524292:UYE524316 VIA524292:VIA524316 VRW524292:VRW524316 WBS524292:WBS524316 WLO524292:WLO524316 WVK524292:WVK524316 C589828:C589852 IY589828:IY589852 SU589828:SU589852 ACQ589828:ACQ589852 AMM589828:AMM589852 AWI589828:AWI589852 BGE589828:BGE589852 BQA589828:BQA589852 BZW589828:BZW589852 CJS589828:CJS589852 CTO589828:CTO589852 DDK589828:DDK589852 DNG589828:DNG589852 DXC589828:DXC589852 EGY589828:EGY589852 EQU589828:EQU589852 FAQ589828:FAQ589852 FKM589828:FKM589852 FUI589828:FUI589852 GEE589828:GEE589852 GOA589828:GOA589852 GXW589828:GXW589852 HHS589828:HHS589852 HRO589828:HRO589852 IBK589828:IBK589852 ILG589828:ILG589852 IVC589828:IVC589852 JEY589828:JEY589852 JOU589828:JOU589852 JYQ589828:JYQ589852 KIM589828:KIM589852 KSI589828:KSI589852 LCE589828:LCE589852 LMA589828:LMA589852 LVW589828:LVW589852 MFS589828:MFS589852 MPO589828:MPO589852 MZK589828:MZK589852 NJG589828:NJG589852 NTC589828:NTC589852 OCY589828:OCY589852 OMU589828:OMU589852 OWQ589828:OWQ589852 PGM589828:PGM589852 PQI589828:PQI589852 QAE589828:QAE589852 QKA589828:QKA589852 QTW589828:QTW589852 RDS589828:RDS589852 RNO589828:RNO589852 RXK589828:RXK589852 SHG589828:SHG589852 SRC589828:SRC589852 TAY589828:TAY589852 TKU589828:TKU589852 TUQ589828:TUQ589852 UEM589828:UEM589852 UOI589828:UOI589852 UYE589828:UYE589852 VIA589828:VIA589852 VRW589828:VRW589852 WBS589828:WBS589852 WLO589828:WLO589852 WVK589828:WVK589852 C655364:C655388 IY655364:IY655388 SU655364:SU655388 ACQ655364:ACQ655388 AMM655364:AMM655388 AWI655364:AWI655388 BGE655364:BGE655388 BQA655364:BQA655388 BZW655364:BZW655388 CJS655364:CJS655388 CTO655364:CTO655388 DDK655364:DDK655388 DNG655364:DNG655388 DXC655364:DXC655388 EGY655364:EGY655388 EQU655364:EQU655388 FAQ655364:FAQ655388 FKM655364:FKM655388 FUI655364:FUI655388 GEE655364:GEE655388 GOA655364:GOA655388 GXW655364:GXW655388 HHS655364:HHS655388 HRO655364:HRO655388 IBK655364:IBK655388 ILG655364:ILG655388 IVC655364:IVC655388 JEY655364:JEY655388 JOU655364:JOU655388 JYQ655364:JYQ655388 KIM655364:KIM655388 KSI655364:KSI655388 LCE655364:LCE655388 LMA655364:LMA655388 LVW655364:LVW655388 MFS655364:MFS655388 MPO655364:MPO655388 MZK655364:MZK655388 NJG655364:NJG655388 NTC655364:NTC655388 OCY655364:OCY655388 OMU655364:OMU655388 OWQ655364:OWQ655388 PGM655364:PGM655388 PQI655364:PQI655388 QAE655364:QAE655388 QKA655364:QKA655388 QTW655364:QTW655388 RDS655364:RDS655388 RNO655364:RNO655388 RXK655364:RXK655388 SHG655364:SHG655388 SRC655364:SRC655388 TAY655364:TAY655388 TKU655364:TKU655388 TUQ655364:TUQ655388 UEM655364:UEM655388 UOI655364:UOI655388 UYE655364:UYE655388 VIA655364:VIA655388 VRW655364:VRW655388 WBS655364:WBS655388 WLO655364:WLO655388 WVK655364:WVK655388 C720900:C720924 IY720900:IY720924 SU720900:SU720924 ACQ720900:ACQ720924 AMM720900:AMM720924 AWI720900:AWI720924 BGE720900:BGE720924 BQA720900:BQA720924 BZW720900:BZW720924 CJS720900:CJS720924 CTO720900:CTO720924 DDK720900:DDK720924 DNG720900:DNG720924 DXC720900:DXC720924 EGY720900:EGY720924 EQU720900:EQU720924 FAQ720900:FAQ720924 FKM720900:FKM720924 FUI720900:FUI720924 GEE720900:GEE720924 GOA720900:GOA720924 GXW720900:GXW720924 HHS720900:HHS720924 HRO720900:HRO720924 IBK720900:IBK720924 ILG720900:ILG720924 IVC720900:IVC720924 JEY720900:JEY720924 JOU720900:JOU720924 JYQ720900:JYQ720924 KIM720900:KIM720924 KSI720900:KSI720924 LCE720900:LCE720924 LMA720900:LMA720924 LVW720900:LVW720924 MFS720900:MFS720924 MPO720900:MPO720924 MZK720900:MZK720924 NJG720900:NJG720924 NTC720900:NTC720924 OCY720900:OCY720924 OMU720900:OMU720924 OWQ720900:OWQ720924 PGM720900:PGM720924 PQI720900:PQI720924 QAE720900:QAE720924 QKA720900:QKA720924 QTW720900:QTW720924 RDS720900:RDS720924 RNO720900:RNO720924 RXK720900:RXK720924 SHG720900:SHG720924 SRC720900:SRC720924 TAY720900:TAY720924 TKU720900:TKU720924 TUQ720900:TUQ720924 UEM720900:UEM720924 UOI720900:UOI720924 UYE720900:UYE720924 VIA720900:VIA720924 VRW720900:VRW720924 WBS720900:WBS720924 WLO720900:WLO720924 WVK720900:WVK720924 C786436:C786460 IY786436:IY786460 SU786436:SU786460 ACQ786436:ACQ786460 AMM786436:AMM786460 AWI786436:AWI786460 BGE786436:BGE786460 BQA786436:BQA786460 BZW786436:BZW786460 CJS786436:CJS786460 CTO786436:CTO786460 DDK786436:DDK786460 DNG786436:DNG786460 DXC786436:DXC786460 EGY786436:EGY786460 EQU786436:EQU786460 FAQ786436:FAQ786460 FKM786436:FKM786460 FUI786436:FUI786460 GEE786436:GEE786460 GOA786436:GOA786460 GXW786436:GXW786460 HHS786436:HHS786460 HRO786436:HRO786460 IBK786436:IBK786460 ILG786436:ILG786460 IVC786436:IVC786460 JEY786436:JEY786460 JOU786436:JOU786460 JYQ786436:JYQ786460 KIM786436:KIM786460 KSI786436:KSI786460 LCE786436:LCE786460 LMA786436:LMA786460 LVW786436:LVW786460 MFS786436:MFS786460 MPO786436:MPO786460 MZK786436:MZK786460 NJG786436:NJG786460 NTC786436:NTC786460 OCY786436:OCY786460 OMU786436:OMU786460 OWQ786436:OWQ786460 PGM786436:PGM786460 PQI786436:PQI786460 QAE786436:QAE786460 QKA786436:QKA786460 QTW786436:QTW786460 RDS786436:RDS786460 RNO786436:RNO786460 RXK786436:RXK786460 SHG786436:SHG786460 SRC786436:SRC786460 TAY786436:TAY786460 TKU786436:TKU786460 TUQ786436:TUQ786460 UEM786436:UEM786460 UOI786436:UOI786460 UYE786436:UYE786460 VIA786436:VIA786460 VRW786436:VRW786460 WBS786436:WBS786460 WLO786436:WLO786460 WVK786436:WVK786460 C851972:C851996 IY851972:IY851996 SU851972:SU851996 ACQ851972:ACQ851996 AMM851972:AMM851996 AWI851972:AWI851996 BGE851972:BGE851996 BQA851972:BQA851996 BZW851972:BZW851996 CJS851972:CJS851996 CTO851972:CTO851996 DDK851972:DDK851996 DNG851972:DNG851996 DXC851972:DXC851996 EGY851972:EGY851996 EQU851972:EQU851996 FAQ851972:FAQ851996 FKM851972:FKM851996 FUI851972:FUI851996 GEE851972:GEE851996 GOA851972:GOA851996 GXW851972:GXW851996 HHS851972:HHS851996 HRO851972:HRO851996 IBK851972:IBK851996 ILG851972:ILG851996 IVC851972:IVC851996 JEY851972:JEY851996 JOU851972:JOU851996 JYQ851972:JYQ851996 KIM851972:KIM851996 KSI851972:KSI851996 LCE851972:LCE851996 LMA851972:LMA851996 LVW851972:LVW851996 MFS851972:MFS851996 MPO851972:MPO851996 MZK851972:MZK851996 NJG851972:NJG851996 NTC851972:NTC851996 OCY851972:OCY851996 OMU851972:OMU851996 OWQ851972:OWQ851996 PGM851972:PGM851996 PQI851972:PQI851996 QAE851972:QAE851996 QKA851972:QKA851996 QTW851972:QTW851996 RDS851972:RDS851996 RNO851972:RNO851996 RXK851972:RXK851996 SHG851972:SHG851996 SRC851972:SRC851996 TAY851972:TAY851996 TKU851972:TKU851996 TUQ851972:TUQ851996 UEM851972:UEM851996 UOI851972:UOI851996 UYE851972:UYE851996 VIA851972:VIA851996 VRW851972:VRW851996 WBS851972:WBS851996 WLO851972:WLO851996 WVK851972:WVK851996 C917508:C917532 IY917508:IY917532 SU917508:SU917532 ACQ917508:ACQ917532 AMM917508:AMM917532 AWI917508:AWI917532 BGE917508:BGE917532 BQA917508:BQA917532 BZW917508:BZW917532 CJS917508:CJS917532 CTO917508:CTO917532 DDK917508:DDK917532 DNG917508:DNG917532 DXC917508:DXC917532 EGY917508:EGY917532 EQU917508:EQU917532 FAQ917508:FAQ917532 FKM917508:FKM917532 FUI917508:FUI917532 GEE917508:GEE917532 GOA917508:GOA917532 GXW917508:GXW917532 HHS917508:HHS917532 HRO917508:HRO917532 IBK917508:IBK917532 ILG917508:ILG917532 IVC917508:IVC917532 JEY917508:JEY917532 JOU917508:JOU917532 JYQ917508:JYQ917532 KIM917508:KIM917532 KSI917508:KSI917532 LCE917508:LCE917532 LMA917508:LMA917532 LVW917508:LVW917532 MFS917508:MFS917532 MPO917508:MPO917532 MZK917508:MZK917532 NJG917508:NJG917532 NTC917508:NTC917532 OCY917508:OCY917532 OMU917508:OMU917532 OWQ917508:OWQ917532 PGM917508:PGM917532 PQI917508:PQI917532 QAE917508:QAE917532 QKA917508:QKA917532 QTW917508:QTW917532 RDS917508:RDS917532 RNO917508:RNO917532 RXK917508:RXK917532 SHG917508:SHG917532 SRC917508:SRC917532 TAY917508:TAY917532 TKU917508:TKU917532 TUQ917508:TUQ917532 UEM917508:UEM917532 UOI917508:UOI917532 UYE917508:UYE917532 VIA917508:VIA917532 VRW917508:VRW917532 WBS917508:WBS917532 WLO917508:WLO917532 WVK917508:WVK917532 C983044:C983068 IY983044:IY983068 SU983044:SU983068 ACQ983044:ACQ983068 AMM983044:AMM983068 AWI983044:AWI983068 BGE983044:BGE983068 BQA983044:BQA983068 BZW983044:BZW983068 CJS983044:CJS983068 CTO983044:CTO983068 DDK983044:DDK983068 DNG983044:DNG983068 DXC983044:DXC983068 EGY983044:EGY983068 EQU983044:EQU983068 FAQ983044:FAQ983068 FKM983044:FKM983068 FUI983044:FUI983068 GEE983044:GEE983068 GOA983044:GOA983068 GXW983044:GXW983068 HHS983044:HHS983068 HRO983044:HRO983068 IBK983044:IBK983068 ILG983044:ILG983068 IVC983044:IVC983068 JEY983044:JEY983068 JOU983044:JOU983068 JYQ983044:JYQ983068 KIM983044:KIM983068 KSI983044:KSI983068 LCE983044:LCE983068 LMA983044:LMA983068 LVW983044:LVW983068 MFS983044:MFS983068 MPO983044:MPO983068 MZK983044:MZK983068 NJG983044:NJG983068 NTC983044:NTC983068 OCY983044:OCY983068 OMU983044:OMU983068 OWQ983044:OWQ983068 PGM983044:PGM983068 PQI983044:PQI983068 QAE983044:QAE983068 QKA983044:QKA983068 QTW983044:QTW983068 RDS983044:RDS983068 RNO983044:RNO983068 RXK983044:RXK983068 SHG983044:SHG983068 SRC983044:SRC983068 TAY983044:TAY983068 TKU983044:TKU983068 TUQ983044:TUQ983068 UEM983044:UEM983068 UOI983044:UOI983068 UYE983044:UYE983068 VIA983044:VIA983068 VRW983044:VRW983068 WBS983044:WBS983068 WLO983044:WLO983068 C4:C139 WVK4:WVK28 WLO4:WLO28 WBS4:WBS28 VRW4:VRW28 VIA4:VIA28 UYE4:UYE28 UOI4:UOI28 UEM4:UEM28 TUQ4:TUQ28 TKU4:TKU28 TAY4:TAY28 SRC4:SRC28 SHG4:SHG28 RXK4:RXK28 RNO4:RNO28 RDS4:RDS28 QTW4:QTW28 QKA4:QKA28 QAE4:QAE28 PQI4:PQI28 PGM4:PGM28 OWQ4:OWQ28 OMU4:OMU28 OCY4:OCY28 NTC4:NTC28 NJG4:NJG28 MZK4:MZK28 MPO4:MPO28 MFS4:MFS28 LVW4:LVW28 LMA4:LMA28 LCE4:LCE28 KSI4:KSI28 KIM4:KIM28 JYQ4:JYQ28 JOU4:JOU28 JEY4:JEY28 IVC4:IVC28 ILG4:ILG28 IBK4:IBK28 HRO4:HRO28 HHS4:HHS28 GXW4:GXW28 GOA4:GOA28 GEE4:GEE28 FUI4:FUI28 FKM4:FKM28 FAQ4:FAQ28 EQU4:EQU28 EGY4:EGY28 DXC4:DXC28 DNG4:DNG28 DDK4:DDK28 CTO4:CTO28 CJS4:CJS28 BZW4:BZW28 BQA4:BQA28 BGE4:BGE28 AWI4:AWI28 AMM4:AMM28 ACQ4:ACQ28 SU4:SU28 IY4:IY28" xr:uid="{EF2703BF-CA26-412D-B8A9-0262195D956D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="IY29:IY138 SU29:SU138 ACQ29:ACQ138 AMM29:AMM138 AWI29:AWI138 BGE29:BGE138 BQA29:BQA138 BZW29:BZW138 CJS29:CJS138 CTO29:CTO138 DDK29:DDK138 DNG29:DNG138 DXC29:DXC138 EGY29:EGY138 EQU29:EQU138 FAQ29:FAQ138 FKM29:FKM138 FUI29:FUI138 GEE29:GEE138 GOA29:GOA138 GXW29:GXW138 HHS29:HHS138 HRO29:HRO138 IBK29:IBK138 ILG29:ILG138 IVC29:IVC138 JEY29:JEY138 JOU29:JOU138 JYQ29:JYQ138 KIM29:KIM138 KSI29:KSI138 LCE29:LCE138 LMA29:LMA138 LVW29:LVW138 MFS29:MFS138 MPO29:MPO138 MZK29:MZK138 NJG29:NJG138 NTC29:NTC138 OCY29:OCY138 OMU29:OMU138 OWQ29:OWQ138 PGM29:PGM138 PQI29:PQI138 QAE29:QAE138 QKA29:QKA138 QTW29:QTW138 RDS29:RDS138 RNO29:RNO138 RXK29:RXK138 SHG29:SHG138 SRC29:SRC138 TAY29:TAY138 TKU29:TKU138 TUQ29:TUQ138 UEM29:UEM138 UOI29:UOI138 UYE29:UYE138 VIA29:VIA138 VRW29:VRW138 WBS29:WBS138 WLO29:WLO138 WVK29:WVK138 C65565:C65674 IY65565:IY65674 SU65565:SU65674 ACQ65565:ACQ65674 AMM65565:AMM65674 AWI65565:AWI65674 BGE65565:BGE65674 BQA65565:BQA65674 BZW65565:BZW65674 CJS65565:CJS65674 CTO65565:CTO65674 DDK65565:DDK65674 DNG65565:DNG65674 DXC65565:DXC65674 EGY65565:EGY65674 EQU65565:EQU65674 FAQ65565:FAQ65674 FKM65565:FKM65674 FUI65565:FUI65674 GEE65565:GEE65674 GOA65565:GOA65674 GXW65565:GXW65674 HHS65565:HHS65674 HRO65565:HRO65674 IBK65565:IBK65674 ILG65565:ILG65674 IVC65565:IVC65674 JEY65565:JEY65674 JOU65565:JOU65674 JYQ65565:JYQ65674 KIM65565:KIM65674 KSI65565:KSI65674 LCE65565:LCE65674 LMA65565:LMA65674 LVW65565:LVW65674 MFS65565:MFS65674 MPO65565:MPO65674 MZK65565:MZK65674 NJG65565:NJG65674 NTC65565:NTC65674 OCY65565:OCY65674 OMU65565:OMU65674 OWQ65565:OWQ65674 PGM65565:PGM65674 PQI65565:PQI65674 QAE65565:QAE65674 QKA65565:QKA65674 QTW65565:QTW65674 RDS65565:RDS65674 RNO65565:RNO65674 RXK65565:RXK65674 SHG65565:SHG65674 SRC65565:SRC65674 TAY65565:TAY65674 TKU65565:TKU65674 TUQ65565:TUQ65674 UEM65565:UEM65674 UOI65565:UOI65674 UYE65565:UYE65674 VIA65565:VIA65674 VRW65565:VRW65674 WBS65565:WBS65674 WLO65565:WLO65674 WVK65565:WVK65674 C131101:C131210 IY131101:IY131210 SU131101:SU131210 ACQ131101:ACQ131210 AMM131101:AMM131210 AWI131101:AWI131210 BGE131101:BGE131210 BQA131101:BQA131210 BZW131101:BZW131210 CJS131101:CJS131210 CTO131101:CTO131210 DDK131101:DDK131210 DNG131101:DNG131210 DXC131101:DXC131210 EGY131101:EGY131210 EQU131101:EQU131210 FAQ131101:FAQ131210 FKM131101:FKM131210 FUI131101:FUI131210 GEE131101:GEE131210 GOA131101:GOA131210 GXW131101:GXW131210 HHS131101:HHS131210 HRO131101:HRO131210 IBK131101:IBK131210 ILG131101:ILG131210 IVC131101:IVC131210 JEY131101:JEY131210 JOU131101:JOU131210 JYQ131101:JYQ131210 KIM131101:KIM131210 KSI131101:KSI131210 LCE131101:LCE131210 LMA131101:LMA131210 LVW131101:LVW131210 MFS131101:MFS131210 MPO131101:MPO131210 MZK131101:MZK131210 NJG131101:NJG131210 NTC131101:NTC131210 OCY131101:OCY131210 OMU131101:OMU131210 OWQ131101:OWQ131210 PGM131101:PGM131210 PQI131101:PQI131210 QAE131101:QAE131210 QKA131101:QKA131210 QTW131101:QTW131210 RDS131101:RDS131210 RNO131101:RNO131210 RXK131101:RXK131210 SHG131101:SHG131210 SRC131101:SRC131210 TAY131101:TAY131210 TKU131101:TKU131210 TUQ131101:TUQ131210 UEM131101:UEM131210 UOI131101:UOI131210 UYE131101:UYE131210 VIA131101:VIA131210 VRW131101:VRW131210 WBS131101:WBS131210 WLO131101:WLO131210 WVK131101:WVK131210 C196637:C196746 IY196637:IY196746 SU196637:SU196746 ACQ196637:ACQ196746 AMM196637:AMM196746 AWI196637:AWI196746 BGE196637:BGE196746 BQA196637:BQA196746 BZW196637:BZW196746 CJS196637:CJS196746 CTO196637:CTO196746 DDK196637:DDK196746 DNG196637:DNG196746 DXC196637:DXC196746 EGY196637:EGY196746 EQU196637:EQU196746 FAQ196637:FAQ196746 FKM196637:FKM196746 FUI196637:FUI196746 GEE196637:GEE196746 GOA196637:GOA196746 GXW196637:GXW196746 HHS196637:HHS196746 HRO196637:HRO196746 IBK196637:IBK196746 ILG196637:ILG196746 IVC196637:IVC196746 JEY196637:JEY196746 JOU196637:JOU196746 JYQ196637:JYQ196746 KIM196637:KIM196746 KSI196637:KSI196746 LCE196637:LCE196746 LMA196637:LMA196746 LVW196637:LVW196746 MFS196637:MFS196746 MPO196637:MPO196746 MZK196637:MZK196746 NJG196637:NJG196746 NTC196637:NTC196746 OCY196637:OCY196746 OMU196637:OMU196746 OWQ196637:OWQ196746 PGM196637:PGM196746 PQI196637:PQI196746 QAE196637:QAE196746 QKA196637:QKA196746 QTW196637:QTW196746 RDS196637:RDS196746 RNO196637:RNO196746 RXK196637:RXK196746 SHG196637:SHG196746 SRC196637:SRC196746 TAY196637:TAY196746 TKU196637:TKU196746 TUQ196637:TUQ196746 UEM196637:UEM196746 UOI196637:UOI196746 UYE196637:UYE196746 VIA196637:VIA196746 VRW196637:VRW196746 WBS196637:WBS196746 WLO196637:WLO196746 WVK196637:WVK196746 C262173:C262282 IY262173:IY262282 SU262173:SU262282 ACQ262173:ACQ262282 AMM262173:AMM262282 AWI262173:AWI262282 BGE262173:BGE262282 BQA262173:BQA262282 BZW262173:BZW262282 CJS262173:CJS262282 CTO262173:CTO262282 DDK262173:DDK262282 DNG262173:DNG262282 DXC262173:DXC262282 EGY262173:EGY262282 EQU262173:EQU262282 FAQ262173:FAQ262282 FKM262173:FKM262282 FUI262173:FUI262282 GEE262173:GEE262282 GOA262173:GOA262282 GXW262173:GXW262282 HHS262173:HHS262282 HRO262173:HRO262282 IBK262173:IBK262282 ILG262173:ILG262282 IVC262173:IVC262282 JEY262173:JEY262282 JOU262173:JOU262282 JYQ262173:JYQ262282 KIM262173:KIM262282 KSI262173:KSI262282 LCE262173:LCE262282 LMA262173:LMA262282 LVW262173:LVW262282 MFS262173:MFS262282 MPO262173:MPO262282 MZK262173:MZK262282 NJG262173:NJG262282 NTC262173:NTC262282 OCY262173:OCY262282 OMU262173:OMU262282 OWQ262173:OWQ262282 PGM262173:PGM262282 PQI262173:PQI262282 QAE262173:QAE262282 QKA262173:QKA262282 QTW262173:QTW262282 RDS262173:RDS262282 RNO262173:RNO262282 RXK262173:RXK262282 SHG262173:SHG262282 SRC262173:SRC262282 TAY262173:TAY262282 TKU262173:TKU262282 TUQ262173:TUQ262282 UEM262173:UEM262282 UOI262173:UOI262282 UYE262173:UYE262282 VIA262173:VIA262282 VRW262173:VRW262282 WBS262173:WBS262282 WLO262173:WLO262282 WVK262173:WVK262282 C327709:C327818 IY327709:IY327818 SU327709:SU327818 ACQ327709:ACQ327818 AMM327709:AMM327818 AWI327709:AWI327818 BGE327709:BGE327818 BQA327709:BQA327818 BZW327709:BZW327818 CJS327709:CJS327818 CTO327709:CTO327818 DDK327709:DDK327818 DNG327709:DNG327818 DXC327709:DXC327818 EGY327709:EGY327818 EQU327709:EQU327818 FAQ327709:FAQ327818 FKM327709:FKM327818 FUI327709:FUI327818 GEE327709:GEE327818 GOA327709:GOA327818 GXW327709:GXW327818 HHS327709:HHS327818 HRO327709:HRO327818 IBK327709:IBK327818 ILG327709:ILG327818 IVC327709:IVC327818 JEY327709:JEY327818 JOU327709:JOU327818 JYQ327709:JYQ327818 KIM327709:KIM327818 KSI327709:KSI327818 LCE327709:LCE327818 LMA327709:LMA327818 LVW327709:LVW327818 MFS327709:MFS327818 MPO327709:MPO327818 MZK327709:MZK327818 NJG327709:NJG327818 NTC327709:NTC327818 OCY327709:OCY327818 OMU327709:OMU327818 OWQ327709:OWQ327818 PGM327709:PGM327818 PQI327709:PQI327818 QAE327709:QAE327818 QKA327709:QKA327818 QTW327709:QTW327818 RDS327709:RDS327818 RNO327709:RNO327818 RXK327709:RXK327818 SHG327709:SHG327818 SRC327709:SRC327818 TAY327709:TAY327818 TKU327709:TKU327818 TUQ327709:TUQ327818 UEM327709:UEM327818 UOI327709:UOI327818 UYE327709:UYE327818 VIA327709:VIA327818 VRW327709:VRW327818 WBS327709:WBS327818 WLO327709:WLO327818 WVK327709:WVK327818 C393245:C393354 IY393245:IY393354 SU393245:SU393354 ACQ393245:ACQ393354 AMM393245:AMM393354 AWI393245:AWI393354 BGE393245:BGE393354 BQA393245:BQA393354 BZW393245:BZW393354 CJS393245:CJS393354 CTO393245:CTO393354 DDK393245:DDK393354 DNG393245:DNG393354 DXC393245:DXC393354 EGY393245:EGY393354 EQU393245:EQU393354 FAQ393245:FAQ393354 FKM393245:FKM393354 FUI393245:FUI393354 GEE393245:GEE393354 GOA393245:GOA393354 GXW393245:GXW393354 HHS393245:HHS393354 HRO393245:HRO393354 IBK393245:IBK393354 ILG393245:ILG393354 IVC393245:IVC393354 JEY393245:JEY393354 JOU393245:JOU393354 JYQ393245:JYQ393354 KIM393245:KIM393354 KSI393245:KSI393354 LCE393245:LCE393354 LMA393245:LMA393354 LVW393245:LVW393354 MFS393245:MFS393354 MPO393245:MPO393354 MZK393245:MZK393354 NJG393245:NJG393354 NTC393245:NTC393354 OCY393245:OCY393354 OMU393245:OMU393354 OWQ393245:OWQ393354 PGM393245:PGM393354 PQI393245:PQI393354 QAE393245:QAE393354 QKA393245:QKA393354 QTW393245:QTW393354 RDS393245:RDS393354 RNO393245:RNO393354 RXK393245:RXK393354 SHG393245:SHG393354 SRC393245:SRC393354 TAY393245:TAY393354 TKU393245:TKU393354 TUQ393245:TUQ393354 UEM393245:UEM393354 UOI393245:UOI393354 UYE393245:UYE393354 VIA393245:VIA393354 VRW393245:VRW393354 WBS393245:WBS393354 WLO393245:WLO393354 WVK393245:WVK393354 C458781:C458890 IY458781:IY458890 SU458781:SU458890 ACQ458781:ACQ458890 AMM458781:AMM458890 AWI458781:AWI458890 BGE458781:BGE458890 BQA458781:BQA458890 BZW458781:BZW458890 CJS458781:CJS458890 CTO458781:CTO458890 DDK458781:DDK458890 DNG458781:DNG458890 DXC458781:DXC458890 EGY458781:EGY458890 EQU458781:EQU458890 FAQ458781:FAQ458890 FKM458781:FKM458890 FUI458781:FUI458890 GEE458781:GEE458890 GOA458781:GOA458890 GXW458781:GXW458890 HHS458781:HHS458890 HRO458781:HRO458890 IBK458781:IBK458890 ILG458781:ILG458890 IVC458781:IVC458890 JEY458781:JEY458890 JOU458781:JOU458890 JYQ458781:JYQ458890 KIM458781:KIM458890 KSI458781:KSI458890 LCE458781:LCE458890 LMA458781:LMA458890 LVW458781:LVW458890 MFS458781:MFS458890 MPO458781:MPO458890 MZK458781:MZK458890 NJG458781:NJG458890 NTC458781:NTC458890 OCY458781:OCY458890 OMU458781:OMU458890 OWQ458781:OWQ458890 PGM458781:PGM458890 PQI458781:PQI458890 QAE458781:QAE458890 QKA458781:QKA458890 QTW458781:QTW458890 RDS458781:RDS458890 RNO458781:RNO458890 RXK458781:RXK458890 SHG458781:SHG458890 SRC458781:SRC458890 TAY458781:TAY458890 TKU458781:TKU458890 TUQ458781:TUQ458890 UEM458781:UEM458890 UOI458781:UOI458890 UYE458781:UYE458890 VIA458781:VIA458890 VRW458781:VRW458890 WBS458781:WBS458890 WLO458781:WLO458890 WVK458781:WVK458890 C524317:C524426 IY524317:IY524426 SU524317:SU524426 ACQ524317:ACQ524426 AMM524317:AMM524426 AWI524317:AWI524426 BGE524317:BGE524426 BQA524317:BQA524426 BZW524317:BZW524426 CJS524317:CJS524426 CTO524317:CTO524426 DDK524317:DDK524426 DNG524317:DNG524426 DXC524317:DXC524426 EGY524317:EGY524426 EQU524317:EQU524426 FAQ524317:FAQ524426 FKM524317:FKM524426 FUI524317:FUI524426 GEE524317:GEE524426 GOA524317:GOA524426 GXW524317:GXW524426 HHS524317:HHS524426 HRO524317:HRO524426 IBK524317:IBK524426 ILG524317:ILG524426 IVC524317:IVC524426 JEY524317:JEY524426 JOU524317:JOU524426 JYQ524317:JYQ524426 KIM524317:KIM524426 KSI524317:KSI524426 LCE524317:LCE524426 LMA524317:LMA524426 LVW524317:LVW524426 MFS524317:MFS524426 MPO524317:MPO524426 MZK524317:MZK524426 NJG524317:NJG524426 NTC524317:NTC524426 OCY524317:OCY524426 OMU524317:OMU524426 OWQ524317:OWQ524426 PGM524317:PGM524426 PQI524317:PQI524426 QAE524317:QAE524426 QKA524317:QKA524426 QTW524317:QTW524426 RDS524317:RDS524426 RNO524317:RNO524426 RXK524317:RXK524426 SHG524317:SHG524426 SRC524317:SRC524426 TAY524317:TAY524426 TKU524317:TKU524426 TUQ524317:TUQ524426 UEM524317:UEM524426 UOI524317:UOI524426 UYE524317:UYE524426 VIA524317:VIA524426 VRW524317:VRW524426 WBS524317:WBS524426 WLO524317:WLO524426 WVK524317:WVK524426 C589853:C589962 IY589853:IY589962 SU589853:SU589962 ACQ589853:ACQ589962 AMM589853:AMM589962 AWI589853:AWI589962 BGE589853:BGE589962 BQA589853:BQA589962 BZW589853:BZW589962 CJS589853:CJS589962 CTO589853:CTO589962 DDK589853:DDK589962 DNG589853:DNG589962 DXC589853:DXC589962 EGY589853:EGY589962 EQU589853:EQU589962 FAQ589853:FAQ589962 FKM589853:FKM589962 FUI589853:FUI589962 GEE589853:GEE589962 GOA589853:GOA589962 GXW589853:GXW589962 HHS589853:HHS589962 HRO589853:HRO589962 IBK589853:IBK589962 ILG589853:ILG589962 IVC589853:IVC589962 JEY589853:JEY589962 JOU589853:JOU589962 JYQ589853:JYQ589962 KIM589853:KIM589962 KSI589853:KSI589962 LCE589853:LCE589962 LMA589853:LMA589962 LVW589853:LVW589962 MFS589853:MFS589962 MPO589853:MPO589962 MZK589853:MZK589962 NJG589853:NJG589962 NTC589853:NTC589962 OCY589853:OCY589962 OMU589853:OMU589962 OWQ589853:OWQ589962 PGM589853:PGM589962 PQI589853:PQI589962 QAE589853:QAE589962 QKA589853:QKA589962 QTW589853:QTW589962 RDS589853:RDS589962 RNO589853:RNO589962 RXK589853:RXK589962 SHG589853:SHG589962 SRC589853:SRC589962 TAY589853:TAY589962 TKU589853:TKU589962 TUQ589853:TUQ589962 UEM589853:UEM589962 UOI589853:UOI589962 UYE589853:UYE589962 VIA589853:VIA589962 VRW589853:VRW589962 WBS589853:WBS589962 WLO589853:WLO589962 WVK589853:WVK589962 C655389:C655498 IY655389:IY655498 SU655389:SU655498 ACQ655389:ACQ655498 AMM655389:AMM655498 AWI655389:AWI655498 BGE655389:BGE655498 BQA655389:BQA655498 BZW655389:BZW655498 CJS655389:CJS655498 CTO655389:CTO655498 DDK655389:DDK655498 DNG655389:DNG655498 DXC655389:DXC655498 EGY655389:EGY655498 EQU655389:EQU655498 FAQ655389:FAQ655498 FKM655389:FKM655498 FUI655389:FUI655498 GEE655389:GEE655498 GOA655389:GOA655498 GXW655389:GXW655498 HHS655389:HHS655498 HRO655389:HRO655498 IBK655389:IBK655498 ILG655389:ILG655498 IVC655389:IVC655498 JEY655389:JEY655498 JOU655389:JOU655498 JYQ655389:JYQ655498 KIM655389:KIM655498 KSI655389:KSI655498 LCE655389:LCE655498 LMA655389:LMA655498 LVW655389:LVW655498 MFS655389:MFS655498 MPO655389:MPO655498 MZK655389:MZK655498 NJG655389:NJG655498 NTC655389:NTC655498 OCY655389:OCY655498 OMU655389:OMU655498 OWQ655389:OWQ655498 PGM655389:PGM655498 PQI655389:PQI655498 QAE655389:QAE655498 QKA655389:QKA655498 QTW655389:QTW655498 RDS655389:RDS655498 RNO655389:RNO655498 RXK655389:RXK655498 SHG655389:SHG655498 SRC655389:SRC655498 TAY655389:TAY655498 TKU655389:TKU655498 TUQ655389:TUQ655498 UEM655389:UEM655498 UOI655389:UOI655498 UYE655389:UYE655498 VIA655389:VIA655498 VRW655389:VRW655498 WBS655389:WBS655498 WLO655389:WLO655498 WVK655389:WVK655498 C720925:C721034 IY720925:IY721034 SU720925:SU721034 ACQ720925:ACQ721034 AMM720925:AMM721034 AWI720925:AWI721034 BGE720925:BGE721034 BQA720925:BQA721034 BZW720925:BZW721034 CJS720925:CJS721034 CTO720925:CTO721034 DDK720925:DDK721034 DNG720925:DNG721034 DXC720925:DXC721034 EGY720925:EGY721034 EQU720925:EQU721034 FAQ720925:FAQ721034 FKM720925:FKM721034 FUI720925:FUI721034 GEE720925:GEE721034 GOA720925:GOA721034 GXW720925:GXW721034 HHS720925:HHS721034 HRO720925:HRO721034 IBK720925:IBK721034 ILG720925:ILG721034 IVC720925:IVC721034 JEY720925:JEY721034 JOU720925:JOU721034 JYQ720925:JYQ721034 KIM720925:KIM721034 KSI720925:KSI721034 LCE720925:LCE721034 LMA720925:LMA721034 LVW720925:LVW721034 MFS720925:MFS721034 MPO720925:MPO721034 MZK720925:MZK721034 NJG720925:NJG721034 NTC720925:NTC721034 OCY720925:OCY721034 OMU720925:OMU721034 OWQ720925:OWQ721034 PGM720925:PGM721034 PQI720925:PQI721034 QAE720925:QAE721034 QKA720925:QKA721034 QTW720925:QTW721034 RDS720925:RDS721034 RNO720925:RNO721034 RXK720925:RXK721034 SHG720925:SHG721034 SRC720925:SRC721034 TAY720925:TAY721034 TKU720925:TKU721034 TUQ720925:TUQ721034 UEM720925:UEM721034 UOI720925:UOI721034 UYE720925:UYE721034 VIA720925:VIA721034 VRW720925:VRW721034 WBS720925:WBS721034 WLO720925:WLO721034 WVK720925:WVK721034 C786461:C786570 IY786461:IY786570 SU786461:SU786570 ACQ786461:ACQ786570 AMM786461:AMM786570 AWI786461:AWI786570 BGE786461:BGE786570 BQA786461:BQA786570 BZW786461:BZW786570 CJS786461:CJS786570 CTO786461:CTO786570 DDK786461:DDK786570 DNG786461:DNG786570 DXC786461:DXC786570 EGY786461:EGY786570 EQU786461:EQU786570 FAQ786461:FAQ786570 FKM786461:FKM786570 FUI786461:FUI786570 GEE786461:GEE786570 GOA786461:GOA786570 GXW786461:GXW786570 HHS786461:HHS786570 HRO786461:HRO786570 IBK786461:IBK786570 ILG786461:ILG786570 IVC786461:IVC786570 JEY786461:JEY786570 JOU786461:JOU786570 JYQ786461:JYQ786570 KIM786461:KIM786570 KSI786461:KSI786570 LCE786461:LCE786570 LMA786461:LMA786570 LVW786461:LVW786570 MFS786461:MFS786570 MPO786461:MPO786570 MZK786461:MZK786570 NJG786461:NJG786570 NTC786461:NTC786570 OCY786461:OCY786570 OMU786461:OMU786570 OWQ786461:OWQ786570 PGM786461:PGM786570 PQI786461:PQI786570 QAE786461:QAE786570 QKA786461:QKA786570 QTW786461:QTW786570 RDS786461:RDS786570 RNO786461:RNO786570 RXK786461:RXK786570 SHG786461:SHG786570 SRC786461:SRC786570 TAY786461:TAY786570 TKU786461:TKU786570 TUQ786461:TUQ786570 UEM786461:UEM786570 UOI786461:UOI786570 UYE786461:UYE786570 VIA786461:VIA786570 VRW786461:VRW786570 WBS786461:WBS786570 WLO786461:WLO786570 WVK786461:WVK786570 C851997:C852106 IY851997:IY852106 SU851997:SU852106 ACQ851997:ACQ852106 AMM851997:AMM852106 AWI851997:AWI852106 BGE851997:BGE852106 BQA851997:BQA852106 BZW851997:BZW852106 CJS851997:CJS852106 CTO851997:CTO852106 DDK851997:DDK852106 DNG851997:DNG852106 DXC851997:DXC852106 EGY851997:EGY852106 EQU851997:EQU852106 FAQ851997:FAQ852106 FKM851997:FKM852106 FUI851997:FUI852106 GEE851997:GEE852106 GOA851997:GOA852106 GXW851997:GXW852106 HHS851997:HHS852106 HRO851997:HRO852106 IBK851997:IBK852106 ILG851997:ILG852106 IVC851997:IVC852106 JEY851997:JEY852106 JOU851997:JOU852106 JYQ851997:JYQ852106 KIM851997:KIM852106 KSI851997:KSI852106 LCE851997:LCE852106 LMA851997:LMA852106 LVW851997:LVW852106 MFS851997:MFS852106 MPO851997:MPO852106 MZK851997:MZK852106 NJG851997:NJG852106 NTC851997:NTC852106 OCY851997:OCY852106 OMU851997:OMU852106 OWQ851997:OWQ852106 PGM851997:PGM852106 PQI851997:PQI852106 QAE851997:QAE852106 QKA851997:QKA852106 QTW851997:QTW852106 RDS851997:RDS852106 RNO851997:RNO852106 RXK851997:RXK852106 SHG851997:SHG852106 SRC851997:SRC852106 TAY851997:TAY852106 TKU851997:TKU852106 TUQ851997:TUQ852106 UEM851997:UEM852106 UOI851997:UOI852106 UYE851997:UYE852106 VIA851997:VIA852106 VRW851997:VRW852106 WBS851997:WBS852106 WLO851997:WLO852106 WVK851997:WVK852106 C917533:C917642 IY917533:IY917642 SU917533:SU917642 ACQ917533:ACQ917642 AMM917533:AMM917642 AWI917533:AWI917642 BGE917533:BGE917642 BQA917533:BQA917642 BZW917533:BZW917642 CJS917533:CJS917642 CTO917533:CTO917642 DDK917533:DDK917642 DNG917533:DNG917642 DXC917533:DXC917642 EGY917533:EGY917642 EQU917533:EQU917642 FAQ917533:FAQ917642 FKM917533:FKM917642 FUI917533:FUI917642 GEE917533:GEE917642 GOA917533:GOA917642 GXW917533:GXW917642 HHS917533:HHS917642 HRO917533:HRO917642 IBK917533:IBK917642 ILG917533:ILG917642 IVC917533:IVC917642 JEY917533:JEY917642 JOU917533:JOU917642 JYQ917533:JYQ917642 KIM917533:KIM917642 KSI917533:KSI917642 LCE917533:LCE917642 LMA917533:LMA917642 LVW917533:LVW917642 MFS917533:MFS917642 MPO917533:MPO917642 MZK917533:MZK917642 NJG917533:NJG917642 NTC917533:NTC917642 OCY917533:OCY917642 OMU917533:OMU917642 OWQ917533:OWQ917642 PGM917533:PGM917642 PQI917533:PQI917642 QAE917533:QAE917642 QKA917533:QKA917642 QTW917533:QTW917642 RDS917533:RDS917642 RNO917533:RNO917642 RXK917533:RXK917642 SHG917533:SHG917642 SRC917533:SRC917642 TAY917533:TAY917642 TKU917533:TKU917642 TUQ917533:TUQ917642 UEM917533:UEM917642 UOI917533:UOI917642 UYE917533:UYE917642 VIA917533:VIA917642 VRW917533:VRW917642 WBS917533:WBS917642 WLO917533:WLO917642 WVK917533:WVK917642 C983069:C983178 IY983069:IY983178 SU983069:SU983178 ACQ983069:ACQ983178 AMM983069:AMM983178 AWI983069:AWI983178 BGE983069:BGE983178 BQA983069:BQA983178 BZW983069:BZW983178 CJS983069:CJS983178 CTO983069:CTO983178 DDK983069:DDK983178 DNG983069:DNG983178 DXC983069:DXC983178 EGY983069:EGY983178 EQU983069:EQU983178 FAQ983069:FAQ983178 FKM983069:FKM983178 FUI983069:FUI983178 GEE983069:GEE983178 GOA983069:GOA983178 GXW983069:GXW983178 HHS983069:HHS983178 HRO983069:HRO983178 IBK983069:IBK983178 ILG983069:ILG983178 IVC983069:IVC983178 JEY983069:JEY983178 JOU983069:JOU983178 JYQ983069:JYQ983178 KIM983069:KIM983178 KSI983069:KSI983178 LCE983069:LCE983178 LMA983069:LMA983178 LVW983069:LVW983178 MFS983069:MFS983178 MPO983069:MPO983178 MZK983069:MZK983178 NJG983069:NJG983178 NTC983069:NTC983178 OCY983069:OCY983178 OMU983069:OMU983178 OWQ983069:OWQ983178 PGM983069:PGM983178 PQI983069:PQI983178 QAE983069:QAE983178 QKA983069:QKA983178 QTW983069:QTW983178 RDS983069:RDS983178 RNO983069:RNO983178 RXK983069:RXK983178 SHG983069:SHG983178 SRC983069:SRC983178 TAY983069:TAY983178 TKU983069:TKU983178 TUQ983069:TUQ983178 UEM983069:UEM983178 UOI983069:UOI983178 UYE983069:UYE983178 VIA983069:VIA983178 VRW983069:VRW983178 WBS983069:WBS983178 WLO983069:WLO983178 WVK983069:WVK983178 WVK983043:WVK983067 C65539:C65563 IY65539:IY65563 SU65539:SU65563 ACQ65539:ACQ65563 AMM65539:AMM65563 AWI65539:AWI65563 BGE65539:BGE65563 BQA65539:BQA65563 BZW65539:BZW65563 CJS65539:CJS65563 CTO65539:CTO65563 DDK65539:DDK65563 DNG65539:DNG65563 DXC65539:DXC65563 EGY65539:EGY65563 EQU65539:EQU65563 FAQ65539:FAQ65563 FKM65539:FKM65563 FUI65539:FUI65563 GEE65539:GEE65563 GOA65539:GOA65563 GXW65539:GXW65563 HHS65539:HHS65563 HRO65539:HRO65563 IBK65539:IBK65563 ILG65539:ILG65563 IVC65539:IVC65563 JEY65539:JEY65563 JOU65539:JOU65563 JYQ65539:JYQ65563 KIM65539:KIM65563 KSI65539:KSI65563 LCE65539:LCE65563 LMA65539:LMA65563 LVW65539:LVW65563 MFS65539:MFS65563 MPO65539:MPO65563 MZK65539:MZK65563 NJG65539:NJG65563 NTC65539:NTC65563 OCY65539:OCY65563 OMU65539:OMU65563 OWQ65539:OWQ65563 PGM65539:PGM65563 PQI65539:PQI65563 QAE65539:QAE65563 QKA65539:QKA65563 QTW65539:QTW65563 RDS65539:RDS65563 RNO65539:RNO65563 RXK65539:RXK65563 SHG65539:SHG65563 SRC65539:SRC65563 TAY65539:TAY65563 TKU65539:TKU65563 TUQ65539:TUQ65563 UEM65539:UEM65563 UOI65539:UOI65563 UYE65539:UYE65563 VIA65539:VIA65563 VRW65539:VRW65563 WBS65539:WBS65563 WLO65539:WLO65563 WVK65539:WVK65563 C131075:C131099 IY131075:IY131099 SU131075:SU131099 ACQ131075:ACQ131099 AMM131075:AMM131099 AWI131075:AWI131099 BGE131075:BGE131099 BQA131075:BQA131099 BZW131075:BZW131099 CJS131075:CJS131099 CTO131075:CTO131099 DDK131075:DDK131099 DNG131075:DNG131099 DXC131075:DXC131099 EGY131075:EGY131099 EQU131075:EQU131099 FAQ131075:FAQ131099 FKM131075:FKM131099 FUI131075:FUI131099 GEE131075:GEE131099 GOA131075:GOA131099 GXW131075:GXW131099 HHS131075:HHS131099 HRO131075:HRO131099 IBK131075:IBK131099 ILG131075:ILG131099 IVC131075:IVC131099 JEY131075:JEY131099 JOU131075:JOU131099 JYQ131075:JYQ131099 KIM131075:KIM131099 KSI131075:KSI131099 LCE131075:LCE131099 LMA131075:LMA131099 LVW131075:LVW131099 MFS131075:MFS131099 MPO131075:MPO131099 MZK131075:MZK131099 NJG131075:NJG131099 NTC131075:NTC131099 OCY131075:OCY131099 OMU131075:OMU131099 OWQ131075:OWQ131099 PGM131075:PGM131099 PQI131075:PQI131099 QAE131075:QAE131099 QKA131075:QKA131099 QTW131075:QTW131099 RDS131075:RDS131099 RNO131075:RNO131099 RXK131075:RXK131099 SHG131075:SHG131099 SRC131075:SRC131099 TAY131075:TAY131099 TKU131075:TKU131099 TUQ131075:TUQ131099 UEM131075:UEM131099 UOI131075:UOI131099 UYE131075:UYE131099 VIA131075:VIA131099 VRW131075:VRW131099 WBS131075:WBS131099 WLO131075:WLO131099 WVK131075:WVK131099 C196611:C196635 IY196611:IY196635 SU196611:SU196635 ACQ196611:ACQ196635 AMM196611:AMM196635 AWI196611:AWI196635 BGE196611:BGE196635 BQA196611:BQA196635 BZW196611:BZW196635 CJS196611:CJS196635 CTO196611:CTO196635 DDK196611:DDK196635 DNG196611:DNG196635 DXC196611:DXC196635 EGY196611:EGY196635 EQU196611:EQU196635 FAQ196611:FAQ196635 FKM196611:FKM196635 FUI196611:FUI196635 GEE196611:GEE196635 GOA196611:GOA196635 GXW196611:GXW196635 HHS196611:HHS196635 HRO196611:HRO196635 IBK196611:IBK196635 ILG196611:ILG196635 IVC196611:IVC196635 JEY196611:JEY196635 JOU196611:JOU196635 JYQ196611:JYQ196635 KIM196611:KIM196635 KSI196611:KSI196635 LCE196611:LCE196635 LMA196611:LMA196635 LVW196611:LVW196635 MFS196611:MFS196635 MPO196611:MPO196635 MZK196611:MZK196635 NJG196611:NJG196635 NTC196611:NTC196635 OCY196611:OCY196635 OMU196611:OMU196635 OWQ196611:OWQ196635 PGM196611:PGM196635 PQI196611:PQI196635 QAE196611:QAE196635 QKA196611:QKA196635 QTW196611:QTW196635 RDS196611:RDS196635 RNO196611:RNO196635 RXK196611:RXK196635 SHG196611:SHG196635 SRC196611:SRC196635 TAY196611:TAY196635 TKU196611:TKU196635 TUQ196611:TUQ196635 UEM196611:UEM196635 UOI196611:UOI196635 UYE196611:UYE196635 VIA196611:VIA196635 VRW196611:VRW196635 WBS196611:WBS196635 WLO196611:WLO196635 WVK196611:WVK196635 C262147:C262171 IY262147:IY262171 SU262147:SU262171 ACQ262147:ACQ262171 AMM262147:AMM262171 AWI262147:AWI262171 BGE262147:BGE262171 BQA262147:BQA262171 BZW262147:BZW262171 CJS262147:CJS262171 CTO262147:CTO262171 DDK262147:DDK262171 DNG262147:DNG262171 DXC262147:DXC262171 EGY262147:EGY262171 EQU262147:EQU262171 FAQ262147:FAQ262171 FKM262147:FKM262171 FUI262147:FUI262171 GEE262147:GEE262171 GOA262147:GOA262171 GXW262147:GXW262171 HHS262147:HHS262171 HRO262147:HRO262171 IBK262147:IBK262171 ILG262147:ILG262171 IVC262147:IVC262171 JEY262147:JEY262171 JOU262147:JOU262171 JYQ262147:JYQ262171 KIM262147:KIM262171 KSI262147:KSI262171 LCE262147:LCE262171 LMA262147:LMA262171 LVW262147:LVW262171 MFS262147:MFS262171 MPO262147:MPO262171 MZK262147:MZK262171 NJG262147:NJG262171 NTC262147:NTC262171 OCY262147:OCY262171 OMU262147:OMU262171 OWQ262147:OWQ262171 PGM262147:PGM262171 PQI262147:PQI262171 QAE262147:QAE262171 QKA262147:QKA262171 QTW262147:QTW262171 RDS262147:RDS262171 RNO262147:RNO262171 RXK262147:RXK262171 SHG262147:SHG262171 SRC262147:SRC262171 TAY262147:TAY262171 TKU262147:TKU262171 TUQ262147:TUQ262171 UEM262147:UEM262171 UOI262147:UOI262171 UYE262147:UYE262171 VIA262147:VIA262171 VRW262147:VRW262171 WBS262147:WBS262171 WLO262147:WLO262171 WVK262147:WVK262171 C327683:C327707 IY327683:IY327707 SU327683:SU327707 ACQ327683:ACQ327707 AMM327683:AMM327707 AWI327683:AWI327707 BGE327683:BGE327707 BQA327683:BQA327707 BZW327683:BZW327707 CJS327683:CJS327707 CTO327683:CTO327707 DDK327683:DDK327707 DNG327683:DNG327707 DXC327683:DXC327707 EGY327683:EGY327707 EQU327683:EQU327707 FAQ327683:FAQ327707 FKM327683:FKM327707 FUI327683:FUI327707 GEE327683:GEE327707 GOA327683:GOA327707 GXW327683:GXW327707 HHS327683:HHS327707 HRO327683:HRO327707 IBK327683:IBK327707 ILG327683:ILG327707 IVC327683:IVC327707 JEY327683:JEY327707 JOU327683:JOU327707 JYQ327683:JYQ327707 KIM327683:KIM327707 KSI327683:KSI327707 LCE327683:LCE327707 LMA327683:LMA327707 LVW327683:LVW327707 MFS327683:MFS327707 MPO327683:MPO327707 MZK327683:MZK327707 NJG327683:NJG327707 NTC327683:NTC327707 OCY327683:OCY327707 OMU327683:OMU327707 OWQ327683:OWQ327707 PGM327683:PGM327707 PQI327683:PQI327707 QAE327683:QAE327707 QKA327683:QKA327707 QTW327683:QTW327707 RDS327683:RDS327707 RNO327683:RNO327707 RXK327683:RXK327707 SHG327683:SHG327707 SRC327683:SRC327707 TAY327683:TAY327707 TKU327683:TKU327707 TUQ327683:TUQ327707 UEM327683:UEM327707 UOI327683:UOI327707 UYE327683:UYE327707 VIA327683:VIA327707 VRW327683:VRW327707 WBS327683:WBS327707 WLO327683:WLO327707 WVK327683:WVK327707 C393219:C393243 IY393219:IY393243 SU393219:SU393243 ACQ393219:ACQ393243 AMM393219:AMM393243 AWI393219:AWI393243 BGE393219:BGE393243 BQA393219:BQA393243 BZW393219:BZW393243 CJS393219:CJS393243 CTO393219:CTO393243 DDK393219:DDK393243 DNG393219:DNG393243 DXC393219:DXC393243 EGY393219:EGY393243 EQU393219:EQU393243 FAQ393219:FAQ393243 FKM393219:FKM393243 FUI393219:FUI393243 GEE393219:GEE393243 GOA393219:GOA393243 GXW393219:GXW393243 HHS393219:HHS393243 HRO393219:HRO393243 IBK393219:IBK393243 ILG393219:ILG393243 IVC393219:IVC393243 JEY393219:JEY393243 JOU393219:JOU393243 JYQ393219:JYQ393243 KIM393219:KIM393243 KSI393219:KSI393243 LCE393219:LCE393243 LMA393219:LMA393243 LVW393219:LVW393243 MFS393219:MFS393243 MPO393219:MPO393243 MZK393219:MZK393243 NJG393219:NJG393243 NTC393219:NTC393243 OCY393219:OCY393243 OMU393219:OMU393243 OWQ393219:OWQ393243 PGM393219:PGM393243 PQI393219:PQI393243 QAE393219:QAE393243 QKA393219:QKA393243 QTW393219:QTW393243 RDS393219:RDS393243 RNO393219:RNO393243 RXK393219:RXK393243 SHG393219:SHG393243 SRC393219:SRC393243 TAY393219:TAY393243 TKU393219:TKU393243 TUQ393219:TUQ393243 UEM393219:UEM393243 UOI393219:UOI393243 UYE393219:UYE393243 VIA393219:VIA393243 VRW393219:VRW393243 WBS393219:WBS393243 WLO393219:WLO393243 WVK393219:WVK393243 C458755:C458779 IY458755:IY458779 SU458755:SU458779 ACQ458755:ACQ458779 AMM458755:AMM458779 AWI458755:AWI458779 BGE458755:BGE458779 BQA458755:BQA458779 BZW458755:BZW458779 CJS458755:CJS458779 CTO458755:CTO458779 DDK458755:DDK458779 DNG458755:DNG458779 DXC458755:DXC458779 EGY458755:EGY458779 EQU458755:EQU458779 FAQ458755:FAQ458779 FKM458755:FKM458779 FUI458755:FUI458779 GEE458755:GEE458779 GOA458755:GOA458779 GXW458755:GXW458779 HHS458755:HHS458779 HRO458755:HRO458779 IBK458755:IBK458779 ILG458755:ILG458779 IVC458755:IVC458779 JEY458755:JEY458779 JOU458755:JOU458779 JYQ458755:JYQ458779 KIM458755:KIM458779 KSI458755:KSI458779 LCE458755:LCE458779 LMA458755:LMA458779 LVW458755:LVW458779 MFS458755:MFS458779 MPO458755:MPO458779 MZK458755:MZK458779 NJG458755:NJG458779 NTC458755:NTC458779 OCY458755:OCY458779 OMU458755:OMU458779 OWQ458755:OWQ458779 PGM458755:PGM458779 PQI458755:PQI458779 QAE458755:QAE458779 QKA458755:QKA458779 QTW458755:QTW458779 RDS458755:RDS458779 RNO458755:RNO458779 RXK458755:RXK458779 SHG458755:SHG458779 SRC458755:SRC458779 TAY458755:TAY458779 TKU458755:TKU458779 TUQ458755:TUQ458779 UEM458755:UEM458779 UOI458755:UOI458779 UYE458755:UYE458779 VIA458755:VIA458779 VRW458755:VRW458779 WBS458755:WBS458779 WLO458755:WLO458779 WVK458755:WVK458779 C524291:C524315 IY524291:IY524315 SU524291:SU524315 ACQ524291:ACQ524315 AMM524291:AMM524315 AWI524291:AWI524315 BGE524291:BGE524315 BQA524291:BQA524315 BZW524291:BZW524315 CJS524291:CJS524315 CTO524291:CTO524315 DDK524291:DDK524315 DNG524291:DNG524315 DXC524291:DXC524315 EGY524291:EGY524315 EQU524291:EQU524315 FAQ524291:FAQ524315 FKM524291:FKM524315 FUI524291:FUI524315 GEE524291:GEE524315 GOA524291:GOA524315 GXW524291:GXW524315 HHS524291:HHS524315 HRO524291:HRO524315 IBK524291:IBK524315 ILG524291:ILG524315 IVC524291:IVC524315 JEY524291:JEY524315 JOU524291:JOU524315 JYQ524291:JYQ524315 KIM524291:KIM524315 KSI524291:KSI524315 LCE524291:LCE524315 LMA524291:LMA524315 LVW524291:LVW524315 MFS524291:MFS524315 MPO524291:MPO524315 MZK524291:MZK524315 NJG524291:NJG524315 NTC524291:NTC524315 OCY524291:OCY524315 OMU524291:OMU524315 OWQ524291:OWQ524315 PGM524291:PGM524315 PQI524291:PQI524315 QAE524291:QAE524315 QKA524291:QKA524315 QTW524291:QTW524315 RDS524291:RDS524315 RNO524291:RNO524315 RXK524291:RXK524315 SHG524291:SHG524315 SRC524291:SRC524315 TAY524291:TAY524315 TKU524291:TKU524315 TUQ524291:TUQ524315 UEM524291:UEM524315 UOI524291:UOI524315 UYE524291:UYE524315 VIA524291:VIA524315 VRW524291:VRW524315 WBS524291:WBS524315 WLO524291:WLO524315 WVK524291:WVK524315 C589827:C589851 IY589827:IY589851 SU589827:SU589851 ACQ589827:ACQ589851 AMM589827:AMM589851 AWI589827:AWI589851 BGE589827:BGE589851 BQA589827:BQA589851 BZW589827:BZW589851 CJS589827:CJS589851 CTO589827:CTO589851 DDK589827:DDK589851 DNG589827:DNG589851 DXC589827:DXC589851 EGY589827:EGY589851 EQU589827:EQU589851 FAQ589827:FAQ589851 FKM589827:FKM589851 FUI589827:FUI589851 GEE589827:GEE589851 GOA589827:GOA589851 GXW589827:GXW589851 HHS589827:HHS589851 HRO589827:HRO589851 IBK589827:IBK589851 ILG589827:ILG589851 IVC589827:IVC589851 JEY589827:JEY589851 JOU589827:JOU589851 JYQ589827:JYQ589851 KIM589827:KIM589851 KSI589827:KSI589851 LCE589827:LCE589851 LMA589827:LMA589851 LVW589827:LVW589851 MFS589827:MFS589851 MPO589827:MPO589851 MZK589827:MZK589851 NJG589827:NJG589851 NTC589827:NTC589851 OCY589827:OCY589851 OMU589827:OMU589851 OWQ589827:OWQ589851 PGM589827:PGM589851 PQI589827:PQI589851 QAE589827:QAE589851 QKA589827:QKA589851 QTW589827:QTW589851 RDS589827:RDS589851 RNO589827:RNO589851 RXK589827:RXK589851 SHG589827:SHG589851 SRC589827:SRC589851 TAY589827:TAY589851 TKU589827:TKU589851 TUQ589827:TUQ589851 UEM589827:UEM589851 UOI589827:UOI589851 UYE589827:UYE589851 VIA589827:VIA589851 VRW589827:VRW589851 WBS589827:WBS589851 WLO589827:WLO589851 WVK589827:WVK589851 C655363:C655387 IY655363:IY655387 SU655363:SU655387 ACQ655363:ACQ655387 AMM655363:AMM655387 AWI655363:AWI655387 BGE655363:BGE655387 BQA655363:BQA655387 BZW655363:BZW655387 CJS655363:CJS655387 CTO655363:CTO655387 DDK655363:DDK655387 DNG655363:DNG655387 DXC655363:DXC655387 EGY655363:EGY655387 EQU655363:EQU655387 FAQ655363:FAQ655387 FKM655363:FKM655387 FUI655363:FUI655387 GEE655363:GEE655387 GOA655363:GOA655387 GXW655363:GXW655387 HHS655363:HHS655387 HRO655363:HRO655387 IBK655363:IBK655387 ILG655363:ILG655387 IVC655363:IVC655387 JEY655363:JEY655387 JOU655363:JOU655387 JYQ655363:JYQ655387 KIM655363:KIM655387 KSI655363:KSI655387 LCE655363:LCE655387 LMA655363:LMA655387 LVW655363:LVW655387 MFS655363:MFS655387 MPO655363:MPO655387 MZK655363:MZK655387 NJG655363:NJG655387 NTC655363:NTC655387 OCY655363:OCY655387 OMU655363:OMU655387 OWQ655363:OWQ655387 PGM655363:PGM655387 PQI655363:PQI655387 QAE655363:QAE655387 QKA655363:QKA655387 QTW655363:QTW655387 RDS655363:RDS655387 RNO655363:RNO655387 RXK655363:RXK655387 SHG655363:SHG655387 SRC655363:SRC655387 TAY655363:TAY655387 TKU655363:TKU655387 TUQ655363:TUQ655387 UEM655363:UEM655387 UOI655363:UOI655387 UYE655363:UYE655387 VIA655363:VIA655387 VRW655363:VRW655387 WBS655363:WBS655387 WLO655363:WLO655387 WVK655363:WVK655387 C720899:C720923 IY720899:IY720923 SU720899:SU720923 ACQ720899:ACQ720923 AMM720899:AMM720923 AWI720899:AWI720923 BGE720899:BGE720923 BQA720899:BQA720923 BZW720899:BZW720923 CJS720899:CJS720923 CTO720899:CTO720923 DDK720899:DDK720923 DNG720899:DNG720923 DXC720899:DXC720923 EGY720899:EGY720923 EQU720899:EQU720923 FAQ720899:FAQ720923 FKM720899:FKM720923 FUI720899:FUI720923 GEE720899:GEE720923 GOA720899:GOA720923 GXW720899:GXW720923 HHS720899:HHS720923 HRO720899:HRO720923 IBK720899:IBK720923 ILG720899:ILG720923 IVC720899:IVC720923 JEY720899:JEY720923 JOU720899:JOU720923 JYQ720899:JYQ720923 KIM720899:KIM720923 KSI720899:KSI720923 LCE720899:LCE720923 LMA720899:LMA720923 LVW720899:LVW720923 MFS720899:MFS720923 MPO720899:MPO720923 MZK720899:MZK720923 NJG720899:NJG720923 NTC720899:NTC720923 OCY720899:OCY720923 OMU720899:OMU720923 OWQ720899:OWQ720923 PGM720899:PGM720923 PQI720899:PQI720923 QAE720899:QAE720923 QKA720899:QKA720923 QTW720899:QTW720923 RDS720899:RDS720923 RNO720899:RNO720923 RXK720899:RXK720923 SHG720899:SHG720923 SRC720899:SRC720923 TAY720899:TAY720923 TKU720899:TKU720923 TUQ720899:TUQ720923 UEM720899:UEM720923 UOI720899:UOI720923 UYE720899:UYE720923 VIA720899:VIA720923 VRW720899:VRW720923 WBS720899:WBS720923 WLO720899:WLO720923 WVK720899:WVK720923 C786435:C786459 IY786435:IY786459 SU786435:SU786459 ACQ786435:ACQ786459 AMM786435:AMM786459 AWI786435:AWI786459 BGE786435:BGE786459 BQA786435:BQA786459 BZW786435:BZW786459 CJS786435:CJS786459 CTO786435:CTO786459 DDK786435:DDK786459 DNG786435:DNG786459 DXC786435:DXC786459 EGY786435:EGY786459 EQU786435:EQU786459 FAQ786435:FAQ786459 FKM786435:FKM786459 FUI786435:FUI786459 GEE786435:GEE786459 GOA786435:GOA786459 GXW786435:GXW786459 HHS786435:HHS786459 HRO786435:HRO786459 IBK786435:IBK786459 ILG786435:ILG786459 IVC786435:IVC786459 JEY786435:JEY786459 JOU786435:JOU786459 JYQ786435:JYQ786459 KIM786435:KIM786459 KSI786435:KSI786459 LCE786435:LCE786459 LMA786435:LMA786459 LVW786435:LVW786459 MFS786435:MFS786459 MPO786435:MPO786459 MZK786435:MZK786459 NJG786435:NJG786459 NTC786435:NTC786459 OCY786435:OCY786459 OMU786435:OMU786459 OWQ786435:OWQ786459 PGM786435:PGM786459 PQI786435:PQI786459 QAE786435:QAE786459 QKA786435:QKA786459 QTW786435:QTW786459 RDS786435:RDS786459 RNO786435:RNO786459 RXK786435:RXK786459 SHG786435:SHG786459 SRC786435:SRC786459 TAY786435:TAY786459 TKU786435:TKU786459 TUQ786435:TUQ786459 UEM786435:UEM786459 UOI786435:UOI786459 UYE786435:UYE786459 VIA786435:VIA786459 VRW786435:VRW786459 WBS786435:WBS786459 WLO786435:WLO786459 WVK786435:WVK786459 C851971:C851995 IY851971:IY851995 SU851971:SU851995 ACQ851971:ACQ851995 AMM851971:AMM851995 AWI851971:AWI851995 BGE851971:BGE851995 BQA851971:BQA851995 BZW851971:BZW851995 CJS851971:CJS851995 CTO851971:CTO851995 DDK851971:DDK851995 DNG851971:DNG851995 DXC851971:DXC851995 EGY851971:EGY851995 EQU851971:EQU851995 FAQ851971:FAQ851995 FKM851971:FKM851995 FUI851971:FUI851995 GEE851971:GEE851995 GOA851971:GOA851995 GXW851971:GXW851995 HHS851971:HHS851995 HRO851971:HRO851995 IBK851971:IBK851995 ILG851971:ILG851995 IVC851971:IVC851995 JEY851971:JEY851995 JOU851971:JOU851995 JYQ851971:JYQ851995 KIM851971:KIM851995 KSI851971:KSI851995 LCE851971:LCE851995 LMA851971:LMA851995 LVW851971:LVW851995 MFS851971:MFS851995 MPO851971:MPO851995 MZK851971:MZK851995 NJG851971:NJG851995 NTC851971:NTC851995 OCY851971:OCY851995 OMU851971:OMU851995 OWQ851971:OWQ851995 PGM851971:PGM851995 PQI851971:PQI851995 QAE851971:QAE851995 QKA851971:QKA851995 QTW851971:QTW851995 RDS851971:RDS851995 RNO851971:RNO851995 RXK851971:RXK851995 SHG851971:SHG851995 SRC851971:SRC851995 TAY851971:TAY851995 TKU851971:TKU851995 TUQ851971:TUQ851995 UEM851971:UEM851995 UOI851971:UOI851995 UYE851971:UYE851995 VIA851971:VIA851995 VRW851971:VRW851995 WBS851971:WBS851995 WLO851971:WLO851995 WVK851971:WVK851995 C917507:C917531 IY917507:IY917531 SU917507:SU917531 ACQ917507:ACQ917531 AMM917507:AMM917531 AWI917507:AWI917531 BGE917507:BGE917531 BQA917507:BQA917531 BZW917507:BZW917531 CJS917507:CJS917531 CTO917507:CTO917531 DDK917507:DDK917531 DNG917507:DNG917531 DXC917507:DXC917531 EGY917507:EGY917531 EQU917507:EQU917531 FAQ917507:FAQ917531 FKM917507:FKM917531 FUI917507:FUI917531 GEE917507:GEE917531 GOA917507:GOA917531 GXW917507:GXW917531 HHS917507:HHS917531 HRO917507:HRO917531 IBK917507:IBK917531 ILG917507:ILG917531 IVC917507:IVC917531 JEY917507:JEY917531 JOU917507:JOU917531 JYQ917507:JYQ917531 KIM917507:KIM917531 KSI917507:KSI917531 LCE917507:LCE917531 LMA917507:LMA917531 LVW917507:LVW917531 MFS917507:MFS917531 MPO917507:MPO917531 MZK917507:MZK917531 NJG917507:NJG917531 NTC917507:NTC917531 OCY917507:OCY917531 OMU917507:OMU917531 OWQ917507:OWQ917531 PGM917507:PGM917531 PQI917507:PQI917531 QAE917507:QAE917531 QKA917507:QKA917531 QTW917507:QTW917531 RDS917507:RDS917531 RNO917507:RNO917531 RXK917507:RXK917531 SHG917507:SHG917531 SRC917507:SRC917531 TAY917507:TAY917531 TKU917507:TKU917531 TUQ917507:TUQ917531 UEM917507:UEM917531 UOI917507:UOI917531 UYE917507:UYE917531 VIA917507:VIA917531 VRW917507:VRW917531 WBS917507:WBS917531 WLO917507:WLO917531 WVK917507:WVK917531 C983043:C983067 IY983043:IY983067 SU983043:SU983067 ACQ983043:ACQ983067 AMM983043:AMM983067 AWI983043:AWI983067 BGE983043:BGE983067 BQA983043:BQA983067 BZW983043:BZW983067 CJS983043:CJS983067 CTO983043:CTO983067 DDK983043:DDK983067 DNG983043:DNG983067 DXC983043:DXC983067 EGY983043:EGY983067 EQU983043:EQU983067 FAQ983043:FAQ983067 FKM983043:FKM983067 FUI983043:FUI983067 GEE983043:GEE983067 GOA983043:GOA983067 GXW983043:GXW983067 HHS983043:HHS983067 HRO983043:HRO983067 IBK983043:IBK983067 ILG983043:ILG983067 IVC983043:IVC983067 JEY983043:JEY983067 JOU983043:JOU983067 JYQ983043:JYQ983067 KIM983043:KIM983067 KSI983043:KSI983067 LCE983043:LCE983067 LMA983043:LMA983067 LVW983043:LVW983067 MFS983043:MFS983067 MPO983043:MPO983067 MZK983043:MZK983067 NJG983043:NJG983067 NTC983043:NTC983067 OCY983043:OCY983067 OMU983043:OMU983067 OWQ983043:OWQ983067 PGM983043:PGM983067 PQI983043:PQI983067 QAE983043:QAE983067 QKA983043:QKA983067 QTW983043:QTW983067 RDS983043:RDS983067 RNO983043:RNO983067 RXK983043:RXK983067 SHG983043:SHG983067 SRC983043:SRC983067 TAY983043:TAY983067 TKU983043:TKU983067 TUQ983043:TUQ983067 UEM983043:UEM983067 UOI983043:UOI983067 UYE983043:UYE983067 VIA983043:VIA983067 VRW983043:VRW983067 WBS983043:WBS983067 WLO983043:WLO983067 IY4:IY27 SU4:SU27 ACQ4:ACQ27 AMM4:AMM27 AWI4:AWI27 BGE4:BGE27 BQA4:BQA27 BZW4:BZW27 CJS4:CJS27 CTO4:CTO27 DDK4:DDK27 DNG4:DNG27 DXC4:DXC27 EGY4:EGY27 EQU4:EQU27 FAQ4:FAQ27 FKM4:FKM27 FUI4:FUI27 GEE4:GEE27 GOA4:GOA27 GXW4:GXW27 HHS4:HHS27 HRO4:HRO27 IBK4:IBK27 ILG4:ILG27 IVC4:IVC27 JEY4:JEY27 JOU4:JOU27 JYQ4:JYQ27 KIM4:KIM27 KSI4:KSI27 LCE4:LCE27 LMA4:LMA27 LVW4:LVW27 MFS4:MFS27 MPO4:MPO27 MZK4:MZK27 NJG4:NJG27 NTC4:NTC27 OCY4:OCY27 OMU4:OMU27 OWQ4:OWQ27 PGM4:PGM27 PQI4:PQI27 QAE4:QAE27 QKA4:QKA27 QTW4:QTW27 RDS4:RDS27 RNO4:RNO27 RXK4:RXK27 SHG4:SHG27 SRC4:SRC27 TAY4:TAY27 TKU4:TKU27 TUQ4:TUQ27 UEM4:UEM27 UOI4:UOI27 UYE4:UYE27 VIA4:VIA27 VRW4:VRW27 WBS4:WBS27 WLO4:WLO27 WVK4:WVK27 C4:C138" xr:uid="{EF2703BF-CA26-412D-B8A9-0262195D956D}">
       <formula1>"Planned,Ongoing,Done,Removed"</formula1>
     </dataValidation>
   </dataValidations>
